--- a/app/assets/prices/Price_VMPAuto_Samara_10_percent_discount.xlsx
+++ b/app/assets/prices/Price_VMPAuto_Samara_10_percent_discount.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="328">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -64,6 +64,12 @@
     <t xml:space="preserve">30 гр</t>
   </si>
   <si>
+    <t xml:space="preserve">4607012404855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200 гр</t>
+  </si>
+  <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
@@ -82,12 +88,18 @@
     <t xml:space="preserve">1 л</t>
   </si>
   <si>
+    <t xml:space="preserve">4607030111926</t>
+  </si>
+  <si>
     <t xml:space="preserve">ВМПАвто Антигель для ДТ (1:500) (мет. флакон)</t>
   </si>
   <si>
     <t xml:space="preserve">400 мл</t>
   </si>
   <si>
+    <t xml:space="preserve">4607030111919</t>
+  </si>
+  <si>
     <t xml:space="preserve">150 мл</t>
   </si>
   <si>
@@ -100,6 +112,9 @@
     <t xml:space="preserve">500 мл</t>
   </si>
   <si>
+    <t xml:space="preserve">4607030111346</t>
+  </si>
+  <si>
     <t xml:space="preserve">ВМПАвто Декарбонизатор для ДТ (мет. флакон)</t>
   </si>
   <si>
@@ -148,10 +163,16 @@
     <t xml:space="preserve">4607012403605</t>
   </si>
   <si>
+    <t xml:space="preserve">ВМПАвто МС Ultra-1 Для подшипников (туба)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4607012405388</t>
+  </si>
+  <si>
     <t xml:space="preserve">ВМПАвто МС Ultra-0 Для зубчатых редукторов (туба)</t>
   </si>
   <si>
-    <t xml:space="preserve">200 гр</t>
+    <t xml:space="preserve">4607012404879</t>
   </si>
   <si>
     <t xml:space="preserve">ВМПАвто МС-1000 (дой-пак)</t>
@@ -169,9 +190,15 @@
     <t xml:space="preserve">9 кг</t>
   </si>
   <si>
+    <t xml:space="preserve">4607012402066</t>
+  </si>
+  <si>
     <t xml:space="preserve">18 кг</t>
   </si>
   <si>
+    <t xml:space="preserve">4607012402080</t>
+  </si>
+  <si>
     <t xml:space="preserve">ВМПАвто МС-1000 (картридж)</t>
   </si>
   <si>
@@ -184,9 +211,15 @@
     <t xml:space="preserve">4607012402639</t>
   </si>
   <si>
+    <t xml:space="preserve">4607012402530</t>
+  </si>
+  <si>
     <t xml:space="preserve">80 гр</t>
   </si>
   <si>
+    <t xml:space="preserve">4607012402615</t>
+  </si>
+  <si>
     <t xml:space="preserve">4607012403360</t>
   </si>
   <si>
@@ -202,9 +235,15 @@
     <t xml:space="preserve">8 кг</t>
   </si>
   <si>
+    <t xml:space="preserve">4607012402219</t>
+  </si>
+  <si>
     <t xml:space="preserve">17 кг</t>
   </si>
   <si>
+    <t xml:space="preserve">4107012402226</t>
+  </si>
+  <si>
     <t xml:space="preserve">ВМПАвто МС-1400 NORD (картридж)</t>
   </si>
   <si>
@@ -217,6 +256,9 @@
     <t xml:space="preserve">ВМПАвто МС-1410 NORD (картридж)</t>
   </si>
   <si>
+    <t xml:space="preserve">4607012403254</t>
+  </si>
+  <si>
     <t xml:space="preserve">ВМПАвто МС-1510 BLUE (дой-пак)</t>
   </si>
   <si>
@@ -226,6 +268,12 @@
     <t xml:space="preserve">ВМПАвто МС-1510 BLUE (евроведро)</t>
   </si>
   <si>
+    <t xml:space="preserve">4607012492059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4607012402097</t>
+  </si>
+  <si>
     <t xml:space="preserve">ВМПАвто МС-1510 BLUE (картридж)</t>
   </si>
   <si>
@@ -241,6 +289,9 @@
     <t xml:space="preserve">4607012402646</t>
   </si>
   <si>
+    <t xml:space="preserve">4607012402653</t>
+  </si>
+  <si>
     <t xml:space="preserve">4607012403377</t>
   </si>
   <si>
@@ -253,6 +304,12 @@
     <t xml:space="preserve">ВМПАвто МС-1520 RUBIN (евроведро)</t>
   </si>
   <si>
+    <t xml:space="preserve">4607012402257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4607012402264</t>
+  </si>
+  <si>
     <t xml:space="preserve">ВМПАвто МС-1520 RUBIN (картридж)</t>
   </si>
   <si>
@@ -268,6 +325,9 @@
     <t xml:space="preserve">90 гр</t>
   </si>
   <si>
+    <t xml:space="preserve">4607012403117</t>
+  </si>
+  <si>
     <t xml:space="preserve">4607012403384</t>
   </si>
   <si>
@@ -292,12 +352,12 @@
     <t xml:space="preserve">4607012402561</t>
   </si>
   <si>
-    <t xml:space="preserve">ВМПАвто МС-1600 (туба в пакете)</t>
-  </si>
-  <si>
     <t xml:space="preserve">ВМПАвто МС-1600 (туба)</t>
   </si>
   <si>
+    <t xml:space="preserve">4607012402707</t>
+  </si>
+  <si>
     <t xml:space="preserve">100 гр</t>
   </si>
   <si>
@@ -388,6 +448,9 @@
     <t xml:space="preserve">ВМПАвто МС-1800 Cмазка для цепей мотоциклов (флакон-аэрозоль)</t>
   </si>
   <si>
+    <t xml:space="preserve">4607012403841</t>
+  </si>
+  <si>
     <t xml:space="preserve">ВМПАвто МС-1810 Cмазка для цепей внедорожных мотоциклов (флакон-аэрозоль)</t>
   </si>
   <si>
@@ -397,7 +460,7 @@
     <t xml:space="preserve">ВМПавто МС-1900 (флакон-аэрозоль)</t>
   </si>
   <si>
-    <t xml:space="preserve">4607012403469</t>
+    <t xml:space="preserve">4607012405098</t>
   </si>
   <si>
     <t xml:space="preserve">ВМПАвто МС-2000 (жест. банка)</t>
@@ -421,9 +484,15 @@
     <t xml:space="preserve">40 гр</t>
   </si>
   <si>
+    <t xml:space="preserve">4607012403773</t>
+  </si>
+  <si>
     <t xml:space="preserve">ВМПАвто МС-4613 "Вжик" Смазка для металлообработки (туба в пакете)</t>
   </si>
   <si>
+    <t xml:space="preserve">4670012403766</t>
+  </si>
+  <si>
     <t xml:space="preserve">ВМПАвто Пластичная смазка для подшипников (туба)</t>
   </si>
   <si>
@@ -439,6 +508,9 @@
     <t xml:space="preserve">1 кг</t>
   </si>
   <si>
+    <t xml:space="preserve">4607012402134</t>
+  </si>
+  <si>
     <t xml:space="preserve">ВМПАвто Притирочная паста «Алмазная» (флакон)</t>
   </si>
   <si>
@@ -451,15 +523,24 @@
     <t xml:space="preserve">ВМПАвто Притирочная паста «Классическая» (банка)</t>
   </si>
   <si>
+    <t xml:space="preserve">4607012402158</t>
+  </si>
+  <si>
     <t xml:space="preserve">ВМПАвто Притирочная паста «Классическая» (флакон)</t>
   </si>
   <si>
+    <t xml:space="preserve">4607012402189</t>
+  </si>
+  <si>
     <t xml:space="preserve">ВМПАвто Притирочная паста «Профессиональная» (банка)</t>
   </si>
   <si>
     <t xml:space="preserve">4607012402172</t>
   </si>
   <si>
+    <t xml:space="preserve">4607012402141</t>
+  </si>
+  <si>
     <t xml:space="preserve">ВМПАвто Притирочная паста «Профессиональная» (флакон)</t>
   </si>
   <si>
@@ -511,21 +592,45 @@
     <t xml:space="preserve">ВМПАвто Фикс Средство для откручивания винтовых крепежей (туба)</t>
   </si>
   <si>
+    <t xml:space="preserve">4607012403612</t>
+  </si>
+  <si>
     <t xml:space="preserve">ВМПАвто ШРУС МС Х5 (евроведро)</t>
   </si>
   <si>
+    <t xml:space="preserve">4607012402295</t>
+  </si>
+  <si>
     <t xml:space="preserve">18 гр</t>
   </si>
   <si>
+    <t xml:space="preserve">4607012402301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВМПАвто Очиститель для цепи велосипедов (мет. флакон)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">650 мл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4607012405319</t>
+  </si>
+  <si>
     <t xml:space="preserve">ВМПАвто ШРУС МС Х5 (стик пакет)</t>
   </si>
   <si>
+    <t xml:space="preserve">4607012403353</t>
+  </si>
+  <si>
     <t xml:space="preserve">ВМПАвто ШРУС МС Х5 (стик-пакет)</t>
   </si>
   <si>
     <t xml:space="preserve">4607012401731</t>
   </si>
   <si>
+    <t xml:space="preserve">4607012402684</t>
+  </si>
+  <si>
     <t xml:space="preserve">ВМПАвто ШРУС МС Х5 (туба)</t>
   </si>
   <si>
@@ -541,9 +646,15 @@
     <t xml:space="preserve">ВМПАвто ШРУС Триподный (туба)</t>
   </si>
   <si>
+    <t xml:space="preserve">4607012405081</t>
+  </si>
+  <si>
     <t xml:space="preserve">ВМПАвто GLOW PSF (масло для ГУР)</t>
   </si>
   <si>
+    <t xml:space="preserve">4607012405104</t>
+  </si>
+  <si>
     <t xml:space="preserve">ВМПАвто iMAGNET P14 (HTHS стабилизатор)</t>
   </si>
   <si>
@@ -556,6 +667,9 @@
     <t xml:space="preserve">90 мл</t>
   </si>
   <si>
+    <t xml:space="preserve">4607012403834</t>
+  </si>
+  <si>
     <t xml:space="preserve">ВМПАвто R1 Metall (пласт. флакон в пакете)</t>
   </si>
   <si>
@@ -571,6 +685,9 @@
     <t xml:space="preserve">ВМПАвто RESURS AT (пласт. флакон)</t>
   </si>
   <si>
+    <t xml:space="preserve">4607012401090</t>
+  </si>
+  <si>
     <t xml:space="preserve">ВМПАвто RESURS DIESEL (пласт. флакон)</t>
   </si>
   <si>
@@ -583,6 +700,15 @@
     <t xml:space="preserve">4607012405012</t>
   </si>
   <si>
+    <t xml:space="preserve">ВМПАвто RESURS NEXT (алюм. стик-пакет)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 гр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4607012405654</t>
+  </si>
+  <si>
     <t xml:space="preserve">ВМПАвто RESURS NEXT (пласт. флакон)</t>
   </si>
   <si>
@@ -598,15 +724,6 @@
     <t xml:space="preserve">4607012400253</t>
   </si>
   <si>
-    <t xml:space="preserve">ВМПАвто RESURS NEXT (алюм. стик-пакет)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17 гр</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4607012405654</t>
-  </si>
-  <si>
     <t xml:space="preserve">ВМПАвто RESURS UNIVERSAL (мет. флакон)</t>
   </si>
   <si>
@@ -619,6 +736,9 @@
     <t xml:space="preserve">ВМПАвто SILICOT (алюминиевый стик-пакет)</t>
   </si>
   <si>
+    <t xml:space="preserve">4607012403575</t>
+  </si>
+  <si>
     <t xml:space="preserve">ВМПАвто SILICOT (туба в пакете)</t>
   </si>
   <si>
@@ -626,6 +746,9 @@
   </si>
   <si>
     <t xml:space="preserve">ВМПАвто Silicot Gel (банка)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4607012403711</t>
   </si>
   <si>
     <t xml:space="preserve">ВМПАвто Silicot REZIN (флакон с губкой)</t>
@@ -892,7 +1015,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00[$ ₽]"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -935,6 +1058,11 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -950,7 +1078,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -963,6 +1091,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -1033,7 +1168,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1102,6 +1237,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1116,26 +1267,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1154,7 +1285,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1162,11 +1309,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1252,7 +1403,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="D1:E1009" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="D1:E1012" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
   <tableColumns count="2">
     <tableColumn id="1" name="Старая цена закупки"/>
     <tableColumn id="2" name="Цена закупки с 10% скидкой"/>
@@ -1265,10 +1416,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC168"/>
+  <dimension ref="A1:AC171"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K100" activeCellId="0" sqref="K100"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G120" activeCellId="0" sqref="G120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1390,12 +1541,12 @@
         <v>37.8</v>
       </c>
       <c r="F3" s="13" t="n">
-        <f aca="false">ROUND(E3*1.5,0)</f>
-        <v>57</v>
+        <f aca="false">ROUNDDOWN(E3*1.5,0)</f>
+        <v>56</v>
       </c>
       <c r="G3" s="13" t="n">
         <f aca="false">F3 + (F3*20%)</f>
-        <v>68.4</v>
+        <v>67.2</v>
       </c>
       <c r="H3" s="11" t="n">
         <v>30</v>
@@ -1431,31 +1582,31 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="n">
-        <v>5101</v>
+        <v>1123</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>16</v>
-      </c>
       <c r="D4" s="13" t="n">
-        <v>166.1</v>
+        <v>125</v>
       </c>
       <c r="E4" s="13" t="n">
         <f aca="false">(D4-D4*10%)</f>
-        <v>149.49</v>
+        <v>112.5</v>
       </c>
       <c r="F4" s="13" t="n">
-        <f aca="false">ROUND(E4*1.5,0)</f>
-        <v>224</v>
+        <f aca="false">ROUNDDOWN(E4*1.5,0)</f>
+        <v>168</v>
       </c>
       <c r="G4" s="13" t="n">
         <f aca="false">F4 + (F4*20%)</f>
-        <v>268.8</v>
+        <v>201.6</v>
       </c>
       <c r="H4" s="11" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I4" s="11" t="n">
         <v>0</v>
@@ -1465,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
@@ -1488,31 +1639,31 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="n">
-        <v>9301</v>
+        <v>5101</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>19</v>
-      </c>
       <c r="D5" s="13" t="n">
-        <v>678</v>
+        <v>166.1</v>
       </c>
       <c r="E5" s="13" t="n">
         <f aca="false">(D5-D5*10%)</f>
-        <v>610.2</v>
+        <v>149.49</v>
       </c>
       <c r="F5" s="13" t="n">
-        <f aca="false">ROUND(E5*1.5,0)</f>
-        <v>915</v>
+        <f aca="false">ROUNDDOWN(E5*1.5,0)</f>
+        <v>224</v>
       </c>
       <c r="G5" s="13" t="n">
         <f aca="false">F5 + (F5*20%)</f>
-        <v>1098</v>
-      </c>
-      <c r="H5" s="16" t="n">
-        <v>6</v>
+        <v>268.8</v>
+      </c>
+      <c r="H5" s="11" t="n">
+        <v>18</v>
       </c>
       <c r="I5" s="11" t="n">
         <v>0</v>
@@ -1522,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
@@ -1545,7 +1696,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="n">
-        <v>9302</v>
+        <v>9301</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>20</v>
@@ -1554,22 +1705,22 @@
         <v>21</v>
       </c>
       <c r="D6" s="13" t="n">
-        <v>297.9</v>
+        <v>678</v>
       </c>
       <c r="E6" s="13" t="n">
         <f aca="false">(D6-D6*10%)</f>
-        <v>268.11</v>
+        <v>610.2</v>
       </c>
       <c r="F6" s="13" t="n">
-        <f aca="false">ROUND(E6*1.5,0)</f>
-        <v>402</v>
+        <f aca="false">ROUNDDOWN(E6*1.5,0)</f>
+        <v>915</v>
       </c>
       <c r="G6" s="13" t="n">
         <f aca="false">F6 + (F6*20%)</f>
-        <v>482.4</v>
+        <v>1098</v>
       </c>
       <c r="H6" s="16" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I6" s="11" t="n">
         <v>0</v>
@@ -1579,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
@@ -1602,28 +1753,28 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="n">
-        <v>9303</v>
+        <v>9302</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>158.8</v>
+        <v>297.9</v>
       </c>
       <c r="E7" s="13" t="n">
         <f aca="false">(D7-D7*10%)</f>
-        <v>142.92</v>
+        <v>268.11</v>
       </c>
       <c r="F7" s="13" t="n">
-        <f aca="false">ROUND(E7*1.5,0)</f>
-        <v>214</v>
+        <f aca="false">ROUNDDOWN(E7*1.5,0)</f>
+        <v>402</v>
       </c>
       <c r="G7" s="13" t="n">
         <f aca="false">F7 + (F7*20%)</f>
-        <v>256.8</v>
+        <v>482.4</v>
       </c>
       <c r="H7" s="16" t="n">
         <v>18</v>
@@ -1636,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
@@ -1659,31 +1810,31 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="n">
-        <v>7701</v>
+        <v>9303</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>207.9</v>
+        <v>158.8</v>
       </c>
       <c r="E8" s="13" t="n">
         <f aca="false">(D8-D8*10%)</f>
-        <v>187.11</v>
+        <v>142.92</v>
       </c>
       <c r="F8" s="13" t="n">
-        <f aca="false">ROUND(E8*1.5,0)</f>
-        <v>281</v>
+        <f aca="false">ROUNDDOWN(E8*1.5,0)</f>
+        <v>214</v>
       </c>
       <c r="G8" s="13" t="n">
         <f aca="false">F8 + (F8*20%)</f>
-        <v>337.2</v>
-      </c>
-      <c r="H8" s="11" t="n">
-        <v>30</v>
+        <v>256.8</v>
+      </c>
+      <c r="H8" s="16" t="n">
+        <v>18</v>
       </c>
       <c r="I8" s="11" t="n">
         <v>0</v>
@@ -1693,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
@@ -1716,31 +1867,31 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="n">
-        <v>9403</v>
+        <v>7701</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>176.2</v>
+        <v>207.9</v>
       </c>
       <c r="E9" s="13" t="n">
         <f aca="false">(D9-D9*10%)</f>
-        <v>158.58</v>
+        <v>187.11</v>
       </c>
       <c r="F9" s="13" t="n">
-        <f aca="false">ROUND(E9*1.5,0)</f>
-        <v>238</v>
+        <f aca="false">ROUNDDOWN(E9*1.5,0)</f>
+        <v>280</v>
       </c>
       <c r="G9" s="13" t="n">
         <f aca="false">F9 + (F9*20%)</f>
-        <v>285.6</v>
-      </c>
-      <c r="H9" s="16" t="n">
-        <v>18</v>
+        <v>336</v>
+      </c>
+      <c r="H9" s="11" t="n">
+        <v>30</v>
       </c>
       <c r="I9" s="11" t="n">
         <v>0</v>
@@ -1750,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
@@ -1773,30 +1924,30 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="n">
-        <v>8407</v>
+        <v>9403</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D10" s="13" t="n">
-        <v>299</v>
+        <v>176.2</v>
       </c>
       <c r="E10" s="13" t="n">
         <f aca="false">(D10-D10*10%)</f>
-        <v>269.1</v>
+        <v>158.58</v>
       </c>
       <c r="F10" s="13" t="n">
-        <f aca="false">ROUND(E10*1.5,0)</f>
-        <v>404</v>
+        <f aca="false">ROUNDDOWN(E10*1.5,0)</f>
+        <v>237</v>
       </c>
       <c r="G10" s="13" t="n">
         <f aca="false">F10 + (F10*20%)</f>
-        <v>484.8</v>
-      </c>
-      <c r="H10" s="11" t="n">
+        <v>284.4</v>
+      </c>
+      <c r="H10" s="16" t="n">
         <v>18</v>
       </c>
       <c r="I10" s="11" t="n">
@@ -1807,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
@@ -1830,31 +1981,31 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="n">
-        <v>1422</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>30</v>
+        <v>8407</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D11" s="13" t="n">
-        <v>269.7</v>
+        <v>299</v>
       </c>
       <c r="E11" s="13" t="n">
         <f aca="false">(D11-D11*10%)</f>
-        <v>242.73</v>
+        <v>269.1</v>
       </c>
       <c r="F11" s="13" t="n">
-        <f aca="false">ROUND(E11*1.5,0)</f>
-        <v>364</v>
+        <f aca="false">ROUNDDOWN(E11*1.5,0)</f>
+        <v>403</v>
       </c>
       <c r="G11" s="13" t="n">
         <f aca="false">F11 + (F11*20%)</f>
-        <v>436.8</v>
+        <v>483.6</v>
       </c>
       <c r="H11" s="11" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I11" s="11" t="n">
         <v>0</v>
@@ -1864,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
@@ -1887,31 +2038,31 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="n">
-        <v>2202</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>33</v>
+        <v>1422</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D12" s="13" t="n">
-        <v>1571.8</v>
+        <v>269.7</v>
       </c>
       <c r="E12" s="13" t="n">
         <f aca="false">(D12-D12*10%)</f>
-        <v>1414.62</v>
+        <v>242.73</v>
       </c>
       <c r="F12" s="13" t="n">
-        <f aca="false">ROUND(E12*1.5,0)</f>
-        <v>2122</v>
+        <f aca="false">ROUNDDOWN(E12*1.5,0)</f>
+        <v>364</v>
       </c>
       <c r="G12" s="13" t="n">
         <f aca="false">F12 + (F12*20%)</f>
-        <v>2546.4</v>
+        <v>436.8</v>
       </c>
       <c r="H12" s="11" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="I12" s="11" t="n">
         <v>0</v>
@@ -1921,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
@@ -1944,31 +2095,31 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="n">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D13" s="13" t="n">
-        <v>790.1</v>
+        <v>1571.8</v>
       </c>
       <c r="E13" s="13" t="n">
         <f aca="false">(D13-D13*10%)</f>
-        <v>711.09</v>
+        <v>1414.62</v>
       </c>
       <c r="F13" s="13" t="n">
-        <f aca="false">ROUND(E13*1.5,0)</f>
-        <v>1067</v>
+        <f aca="false">ROUNDDOWN(E13*1.5,0)</f>
+        <v>2121</v>
       </c>
       <c r="G13" s="13" t="n">
         <f aca="false">F13 + (F13*20%)</f>
-        <v>1280.4</v>
+        <v>2545.2</v>
       </c>
       <c r="H13" s="11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I13" s="11" t="n">
         <v>0</v>
@@ -1978,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
@@ -2001,31 +2152,31 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="n">
-        <v>1002</v>
+        <v>2201</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D14" s="13" t="n">
-        <v>39</v>
+        <v>790.1</v>
       </c>
       <c r="E14" s="13" t="n">
         <f aca="false">(D14-D14*10%)</f>
-        <v>35.1</v>
+        <v>711.09</v>
       </c>
       <c r="F14" s="13" t="n">
-        <f aca="false">ROUND(E14*1.5,0)</f>
-        <v>53</v>
+        <f aca="false">ROUNDDOWN(E14*1.5,0)</f>
+        <v>1066</v>
       </c>
       <c r="G14" s="13" t="n">
         <f aca="false">F14 + (F14*20%)</f>
-        <v>63.6</v>
+        <v>1279.2</v>
       </c>
       <c r="H14" s="11" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="I14" s="11" t="n">
         <v>0</v>
@@ -2035,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
@@ -2058,31 +2209,31 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="n">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D15" s="13" t="n">
-        <v>186.2</v>
+        <v>39</v>
       </c>
       <c r="E15" s="13" t="n">
         <f aca="false">(D15-D15*10%)</f>
-        <v>167.58</v>
+        <v>35.1</v>
       </c>
       <c r="F15" s="13" t="n">
-        <f aca="false">ROUND(E15*1.5,0)</f>
-        <v>251</v>
+        <f aca="false">ROUNDDOWN(E15*1.5,0)</f>
+        <v>52</v>
       </c>
       <c r="G15" s="13" t="n">
         <f aca="false">F15 + (F15*20%)</f>
-        <v>301.2</v>
+        <v>62.4</v>
       </c>
       <c r="H15" s="11" t="n">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="I15" s="11" t="n">
         <v>0</v>
@@ -2092,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
@@ -2114,32 +2265,32 @@
       <c r="AC15" s="15"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="n">
-        <v>1117</v>
+      <c r="A16" s="17" t="n">
+        <v>1004</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>15</v>
       </c>
       <c r="D16" s="13" t="n">
-        <v>926.1</v>
+        <v>186.2</v>
       </c>
       <c r="E16" s="13" t="n">
         <f aca="false">(D16-D16*10%)</f>
-        <v>833.49</v>
+        <v>167.58</v>
       </c>
       <c r="F16" s="13" t="n">
-        <f aca="false">ROUND(E16*1.5,0)</f>
-        <v>1250</v>
+        <f aca="false">ROUNDDOWN(E16*1.5,0)</f>
+        <v>251</v>
       </c>
       <c r="G16" s="13" t="n">
         <f aca="false">F16 + (F16*20%)</f>
-        <v>1500</v>
+        <v>301.2</v>
       </c>
       <c r="H16" s="11" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="I16" s="11" t="n">
         <v>0</v>
@@ -2149,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
@@ -2172,31 +2323,31 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="n">
-        <v>1107</v>
+        <v>1003</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="D17" s="13" t="n">
-        <v>3882.9</v>
+        <v>186.2</v>
       </c>
       <c r="E17" s="13" t="n">
         <f aca="false">(D17-D17*10%)</f>
-        <v>3494.61</v>
+        <v>167.58</v>
       </c>
       <c r="F17" s="13" t="n">
-        <f aca="false">ROUND(E17*1.5,0)</f>
-        <v>5242</v>
+        <f aca="false">ROUNDDOWN(E17*1.5,0)</f>
+        <v>251</v>
       </c>
       <c r="G17" s="13" t="n">
         <f aca="false">F17 + (F17*20%)</f>
-        <v>6290.4</v>
+        <v>301.2</v>
       </c>
       <c r="H17" s="11" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="I17" s="11" t="n">
         <v>0</v>
@@ -2206,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
@@ -2229,31 +2380,31 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="n">
-        <v>1108</v>
+        <v>1117</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D18" s="13" t="n">
-        <v>7296.3</v>
+        <v>926.1</v>
       </c>
       <c r="E18" s="13" t="n">
         <f aca="false">(D18-D18*10%)</f>
-        <v>6566.67</v>
+        <v>833.49</v>
       </c>
       <c r="F18" s="13" t="n">
-        <f aca="false">ROUND(E18*1.5,0)</f>
-        <v>9850</v>
+        <f aca="false">ROUNDDOWN(E18*1.5,0)</f>
+        <v>1250</v>
       </c>
       <c r="G18" s="13" t="n">
         <f aca="false">F18 + (F18*20%)</f>
-        <v>11820</v>
+        <v>1500</v>
       </c>
       <c r="H18" s="11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I18" s="11" t="n">
         <v>0</v>
@@ -2263,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
@@ -2286,31 +2437,31 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="n">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D19" s="13" t="n">
-        <v>295</v>
+        <v>3882.9</v>
       </c>
       <c r="E19" s="13" t="n">
         <f aca="false">(D19-D19*10%)</f>
-        <v>265.5</v>
+        <v>3494.61</v>
       </c>
       <c r="F19" s="13" t="n">
-        <f aca="false">ROUND(E19*1.5,0)</f>
-        <v>398</v>
+        <f aca="false">ROUNDDOWN(E19*1.5,0)</f>
+        <v>5241</v>
       </c>
       <c r="G19" s="13" t="n">
         <f aca="false">F19 + (F19*20%)</f>
-        <v>477.6</v>
+        <v>6289.2</v>
       </c>
       <c r="H19" s="11" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I19" s="11" t="n">
         <v>0</v>
@@ -2320,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
@@ -2343,31 +2494,31 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="n">
-        <v>1101</v>
+        <v>1108</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="D20" s="13" t="n">
-        <v>39.8</v>
+        <v>7296.3</v>
       </c>
       <c r="E20" s="13" t="n">
         <f aca="false">(D20-D20*10%)</f>
-        <v>35.82</v>
+        <v>6566.67</v>
       </c>
       <c r="F20" s="13" t="n">
-        <f aca="false">ROUND(E20*1.5,0)</f>
-        <v>54</v>
+        <f aca="false">ROUNDDOWN(E20*1.5,0)</f>
+        <v>9850</v>
       </c>
       <c r="G20" s="13" t="n">
         <f aca="false">F20 + (F20*20%)</f>
-        <v>64.8</v>
+        <v>11820</v>
       </c>
       <c r="H20" s="11" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I20" s="11" t="n">
         <v>0</v>
@@ -2377,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
@@ -2400,31 +2551,31 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="n">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D21" s="13" t="n">
-        <v>42.2</v>
+        <v>295</v>
       </c>
       <c r="E21" s="13" t="n">
         <f aca="false">(D21-D21*10%)</f>
-        <v>37.98</v>
+        <v>265.5</v>
       </c>
       <c r="F21" s="13" t="n">
-        <f aca="false">ROUND(E21*1.5,0)</f>
-        <v>57</v>
+        <f aca="false">ROUNDDOWN(E21*1.5,0)</f>
+        <v>398</v>
       </c>
       <c r="G21" s="13" t="n">
         <f aca="false">F21 + (F21*20%)</f>
-        <v>68.4</v>
+        <v>477.6</v>
       </c>
       <c r="H21" s="11" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="I21" s="11" t="n">
         <v>0</v>
@@ -2434,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
@@ -2457,28 +2608,28 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="n">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="D22" s="13" t="n">
-        <v>46.1</v>
+        <v>39.8</v>
       </c>
       <c r="E22" s="13" t="n">
         <f aca="false">(D22-D22*10%)</f>
-        <v>41.49</v>
+        <v>35.82</v>
       </c>
       <c r="F22" s="13" t="n">
-        <f aca="false">ROUND(E22*1.5,0)</f>
-        <v>62</v>
+        <f aca="false">ROUNDDOWN(E22*1.5,0)</f>
+        <v>53</v>
       </c>
       <c r="G22" s="13" t="n">
         <f aca="false">F22 + (F22*20%)</f>
-        <v>74.4</v>
+        <v>63.6</v>
       </c>
       <c r="H22" s="11" t="n">
         <v>100</v>
@@ -2491,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
@@ -2514,31 +2665,31 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="n">
-        <v>1113</v>
+        <v>1102</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D23" s="13" t="n">
-        <v>226.4</v>
+        <v>42.2</v>
       </c>
       <c r="E23" s="13" t="n">
         <f aca="false">(D23-D23*10%)</f>
-        <v>203.76</v>
+        <v>37.98</v>
       </c>
       <c r="F23" s="13" t="n">
-        <f aca="false">ROUND(E23*1.5,0)</f>
-        <v>306</v>
+        <f aca="false">ROUNDDOWN(E23*1.5,0)</f>
+        <v>56</v>
       </c>
       <c r="G23" s="13" t="n">
         <f aca="false">F23 + (F23*20%)</f>
-        <v>367.2</v>
+        <v>67.2</v>
       </c>
       <c r="H23" s="11" t="n">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="I23" s="11" t="n">
         <v>0</v>
@@ -2548,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
@@ -2571,31 +2722,31 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="n">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="D24" s="13" t="n">
-        <v>176.1</v>
+        <v>46.1</v>
       </c>
       <c r="E24" s="13" t="n">
         <f aca="false">(D24-D24*10%)</f>
-        <v>158.49</v>
+        <v>41.49</v>
       </c>
       <c r="F24" s="13" t="n">
-        <f aca="false">ROUND(E24*1.5,0)</f>
-        <v>238</v>
+        <f aca="false">ROUNDDOWN(E24*1.5,0)</f>
+        <v>62</v>
       </c>
       <c r="G24" s="13" t="n">
         <f aca="false">F24 + (F24*20%)</f>
-        <v>285.6</v>
+        <v>74.4</v>
       </c>
       <c r="H24" s="11" t="n">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="I24" s="11" t="n">
         <v>0</v>
@@ -2605,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
@@ -2628,31 +2779,31 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="n">
-        <v>1202</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>58</v>
+        <v>1113</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D25" s="13" t="n">
-        <v>6629.6</v>
+        <v>226.4</v>
       </c>
       <c r="E25" s="13" t="n">
         <f aca="false">(D25-D25*10%)</f>
-        <v>5966.64</v>
+        <v>203.76</v>
       </c>
       <c r="F25" s="13" t="n">
-        <f aca="false">ROUND(E25*1.5,0)</f>
-        <v>8950</v>
+        <f aca="false">ROUNDDOWN(E25*1.5,0)</f>
+        <v>305</v>
       </c>
       <c r="G25" s="13" t="n">
         <f aca="false">F25 + (F25*20%)</f>
-        <v>10740</v>
+        <v>366</v>
       </c>
       <c r="H25" s="11" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="I25" s="11" t="n">
         <v>0</v>
@@ -2662,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
@@ -2685,31 +2836,31 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="n">
-        <v>1203</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>58</v>
+        <v>1104</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="D26" s="13" t="n">
-        <v>13869.5</v>
+        <v>176.1</v>
       </c>
       <c r="E26" s="13" t="n">
         <f aca="false">(D26-D26*10%)</f>
-        <v>12482.55</v>
+        <v>158.49</v>
       </c>
       <c r="F26" s="13" t="n">
-        <f aca="false">ROUND(E26*1.5,0)</f>
-        <v>18724</v>
+        <f aca="false">ROUNDDOWN(E26*1.5,0)</f>
+        <v>237</v>
       </c>
       <c r="G26" s="13" t="n">
         <f aca="false">F26 + (F26*20%)</f>
-        <v>22468.8</v>
+        <v>284.4</v>
       </c>
       <c r="H26" s="11" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="I26" s="11" t="n">
         <v>0</v>
@@ -2719,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
@@ -2742,31 +2893,31 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="n">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="D27" s="13" t="n">
-        <v>363.4</v>
+        <v>6629.6</v>
       </c>
       <c r="E27" s="13" t="n">
         <f aca="false">(D27-D27*10%)</f>
-        <v>327.06</v>
+        <v>5966.64</v>
       </c>
       <c r="F27" s="13" t="n">
-        <f aca="false">ROUND(E27*1.5,0)</f>
-        <v>491</v>
+        <f aca="false">ROUNDDOWN(E27*1.5,0)</f>
+        <v>8949</v>
       </c>
       <c r="G27" s="13" t="n">
         <f aca="false">F27 + (F27*20%)</f>
-        <v>589.2</v>
+        <v>10738.8</v>
       </c>
       <c r="H27" s="11" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I27" s="11" t="n">
         <v>0</v>
@@ -2776,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
@@ -2799,28 +2950,28 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="n">
-        <v>1212</v>
+        <v>1203</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D28" s="13" t="n">
-        <v>4956.8</v>
+        <v>13869.5</v>
       </c>
       <c r="E28" s="13" t="n">
         <f aca="false">(D28-D28*10%)</f>
-        <v>4461.12</v>
+        <v>12482.55</v>
       </c>
       <c r="F28" s="13" t="n">
-        <f aca="false">ROUND(E28*1.5,0)</f>
-        <v>6692</v>
+        <f aca="false">ROUNDDOWN(E28*1.5,0)</f>
+        <v>18723</v>
       </c>
       <c r="G28" s="13" t="n">
         <f aca="false">F28 + (F28*20%)</f>
-        <v>8030.4</v>
+        <v>22467.6</v>
       </c>
       <c r="H28" s="11" t="n">
         <v>1</v>
@@ -2832,8 +2983,8 @@
         <f aca="false">D28*I28</f>
         <v>0</v>
       </c>
-      <c r="K28" s="14" t="s">
-        <v>14</v>
+      <c r="K28" s="19" t="s">
+        <v>73</v>
       </c>
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
@@ -2856,31 +3007,31 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="n">
-        <v>1213</v>
+        <v>1201</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="D29" s="13" t="n">
-        <v>9817.5</v>
+        <v>363.4</v>
       </c>
       <c r="E29" s="13" t="n">
         <f aca="false">(D29-D29*10%)</f>
-        <v>8835.75</v>
+        <v>327.06</v>
       </c>
       <c r="F29" s="13" t="n">
-        <f aca="false">ROUND(E29*1.5,0)</f>
-        <v>13254</v>
+        <f aca="false">ROUNDDOWN(E29*1.5,0)</f>
+        <v>490</v>
       </c>
       <c r="G29" s="13" t="n">
         <f aca="false">F29 + (F29*20%)</f>
-        <v>15904.8</v>
+        <v>588</v>
       </c>
       <c r="H29" s="11" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I29" s="11" t="n">
         <v>0</v>
@@ -2889,8 +3040,8 @@
         <f aca="false">D29*I29</f>
         <v>0</v>
       </c>
-      <c r="K29" s="14" t="s">
-        <v>14</v>
+      <c r="K29" s="19" t="s">
+        <v>75</v>
       </c>
       <c r="L29" s="15"/>
       <c r="M29" s="15"/>
@@ -2913,31 +3064,31 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="n">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="D30" s="13" t="n">
-        <v>292.2</v>
+        <v>4956.8</v>
       </c>
       <c r="E30" s="13" t="n">
         <f aca="false">(D30-D30*10%)</f>
-        <v>262.98</v>
+        <v>4461.12</v>
       </c>
       <c r="F30" s="13" t="n">
-        <f aca="false">ROUND(E30*1.5,0)</f>
-        <v>394</v>
+        <f aca="false">ROUNDDOWN(E30*1.5,0)</f>
+        <v>6691</v>
       </c>
       <c r="G30" s="13" t="n">
         <f aca="false">F30 + (F30*20%)</f>
-        <v>472.8</v>
+        <v>8029.2</v>
       </c>
       <c r="H30" s="11" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I30" s="11" t="n">
         <v>0</v>
@@ -2946,8 +3097,8 @@
         <f aca="false">D30*I30</f>
         <v>0</v>
       </c>
-      <c r="K30" s="14" t="s">
-        <v>14</v>
+      <c r="K30" s="20" t="n">
+        <v>4607012403261</v>
       </c>
       <c r="L30" s="15"/>
       <c r="M30" s="15"/>
@@ -2970,31 +3121,31 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="n">
-        <v>1316</v>
+        <v>1213</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="D31" s="13" t="n">
-        <v>978.7</v>
+        <v>9817.5</v>
       </c>
       <c r="E31" s="13" t="n">
         <f aca="false">(D31-D31*10%)</f>
-        <v>880.83</v>
+        <v>8835.75</v>
       </c>
       <c r="F31" s="13" t="n">
-        <f aca="false">ROUND(E31*1.5,0)</f>
-        <v>1321</v>
+        <f aca="false">ROUNDDOWN(E31*1.5,0)</f>
+        <v>13253</v>
       </c>
       <c r="G31" s="13" t="n">
         <f aca="false">F31 + (F31*20%)</f>
-        <v>1585.2</v>
+        <v>15903.6</v>
       </c>
       <c r="H31" s="11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I31" s="11" t="n">
         <v>0</v>
@@ -3003,8 +3154,8 @@
         <f aca="false">D31*I31</f>
         <v>0</v>
       </c>
-      <c r="K31" s="14" t="s">
-        <v>66</v>
+      <c r="K31" s="20" t="n">
+        <v>4607012403278</v>
       </c>
       <c r="L31" s="15"/>
       <c r="M31" s="15"/>
@@ -3027,31 +3178,31 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="n">
-        <v>1306</v>
+        <v>1211</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D32" s="13" t="n">
-        <v>3780.5</v>
+        <v>292.2</v>
       </c>
       <c r="E32" s="13" t="n">
         <f aca="false">(D32-D32*10%)</f>
-        <v>3402.45</v>
+        <v>262.98</v>
       </c>
       <c r="F32" s="13" t="n">
-        <f aca="false">ROUND(E32*1.5,0)</f>
-        <v>5104</v>
+        <f aca="false">ROUNDDOWN(E32*1.5,0)</f>
+        <v>394</v>
       </c>
       <c r="G32" s="13" t="n">
         <f aca="false">F32 + (F32*20%)</f>
-        <v>6124.8</v>
+        <v>472.8</v>
       </c>
       <c r="H32" s="11" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I32" s="11" t="n">
         <v>0</v>
@@ -3060,8 +3211,8 @@
         <f aca="false">D32*I32</f>
         <v>0</v>
       </c>
-      <c r="K32" s="14" t="s">
-        <v>14</v>
+      <c r="K32" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="L32" s="15"/>
       <c r="M32" s="15"/>
@@ -3084,31 +3235,31 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="n">
-        <v>1307</v>
+        <v>1316</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D33" s="13" t="n">
-        <v>7120.9</v>
+        <v>978.7</v>
       </c>
       <c r="E33" s="13" t="n">
         <f aca="false">(D33-D33*10%)</f>
-        <v>6408.81</v>
+        <v>880.83</v>
       </c>
       <c r="F33" s="13" t="n">
-        <f aca="false">ROUND(E33*1.5,0)</f>
-        <v>9613</v>
+        <f aca="false">ROUNDDOWN(E33*1.5,0)</f>
+        <v>1321</v>
       </c>
       <c r="G33" s="13" t="n">
         <f aca="false">F33 + (F33*20%)</f>
-        <v>11535.6</v>
+        <v>1585.2</v>
       </c>
       <c r="H33" s="11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I33" s="11" t="n">
         <v>0</v>
@@ -3118,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="14" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="L33" s="15"/>
       <c r="M33" s="15"/>
@@ -3141,31 +3292,31 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="n">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D34" s="13" t="n">
-        <v>284.8</v>
+        <v>3780.5</v>
       </c>
       <c r="E34" s="13" t="n">
         <f aca="false">(D34-D34*10%)</f>
-        <v>256.32</v>
+        <v>3402.45</v>
       </c>
       <c r="F34" s="13" t="n">
-        <f aca="false">ROUND(E34*1.5,0)</f>
-        <v>384</v>
+        <f aca="false">ROUNDDOWN(E34*1.5,0)</f>
+        <v>5103</v>
       </c>
       <c r="G34" s="13" t="n">
         <f aca="false">F34 + (F34*20%)</f>
-        <v>460.8</v>
+        <v>6123.6</v>
       </c>
       <c r="H34" s="11" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I34" s="11" t="n">
         <v>0</v>
@@ -3175,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="L34" s="15"/>
       <c r="M34" s="15"/>
@@ -3198,31 +3349,31 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="10" t="n">
-        <v>1301</v>
+        <v>1307</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="D35" s="13" t="n">
-        <v>39.3</v>
+        <v>7120.9</v>
       </c>
       <c r="E35" s="13" t="n">
         <f aca="false">(D35-D35*10%)</f>
-        <v>35.37</v>
+        <v>6408.81</v>
       </c>
       <c r="F35" s="13" t="n">
-        <f aca="false">ROUND(E35*1.5,0)</f>
-        <v>53</v>
+        <f aca="false">ROUNDDOWN(E35*1.5,0)</f>
+        <v>9613</v>
       </c>
       <c r="G35" s="13" t="n">
         <f aca="false">F35 + (F35*20%)</f>
-        <v>63.6</v>
+        <v>11535.6</v>
       </c>
       <c r="H35" s="11" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I35" s="11" t="n">
         <v>0</v>
@@ -3232,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="14" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="L35" s="15"/>
       <c r="M35" s="15"/>
@@ -3255,31 +3406,31 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="n">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D36" s="13" t="n">
-        <v>41.9</v>
+        <v>284.8</v>
       </c>
       <c r="E36" s="13" t="n">
         <f aca="false">(D36-D36*10%)</f>
-        <v>37.71</v>
+        <v>256.32</v>
       </c>
       <c r="F36" s="13" t="n">
-        <f aca="false">ROUND(E36*1.5,0)</f>
-        <v>57</v>
+        <f aca="false">ROUNDDOWN(E36*1.5,0)</f>
+        <v>384</v>
       </c>
       <c r="G36" s="13" t="n">
         <f aca="false">F36 + (F36*20%)</f>
-        <v>68.4</v>
+        <v>460.8</v>
       </c>
       <c r="H36" s="11" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="I36" s="11" t="n">
         <v>0</v>
@@ -3289,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="14" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="L36" s="15"/>
       <c r="M36" s="15"/>
@@ -3312,28 +3463,28 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="n">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="D37" s="13" t="n">
-        <v>46.2</v>
+        <v>39.3</v>
       </c>
       <c r="E37" s="13" t="n">
         <f aca="false">(D37-D37*10%)</f>
-        <v>41.58</v>
+        <v>35.37</v>
       </c>
       <c r="F37" s="13" t="n">
-        <f aca="false">ROUND(E37*1.5,0)</f>
-        <v>62</v>
+        <f aca="false">ROUNDDOWN(E37*1.5,0)</f>
+        <v>53</v>
       </c>
       <c r="G37" s="13" t="n">
         <f aca="false">F37 + (F37*20%)</f>
-        <v>74.4</v>
+        <v>63.6</v>
       </c>
       <c r="H37" s="11" t="n">
         <v>100</v>
@@ -3346,7 +3497,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="14" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="L37" s="15"/>
       <c r="M37" s="15"/>
@@ -3369,31 +3520,31 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="n">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D38" s="13" t="n">
-        <v>232.7</v>
+        <v>41.9</v>
       </c>
       <c r="E38" s="13" t="n">
         <f aca="false">(D38-D38*10%)</f>
-        <v>209.43</v>
+        <v>37.71</v>
       </c>
       <c r="F38" s="13" t="n">
-        <f aca="false">ROUND(E38*1.5,0)</f>
-        <v>314</v>
+        <f aca="false">ROUNDDOWN(E38*1.5,0)</f>
+        <v>56</v>
       </c>
       <c r="G38" s="13" t="n">
         <f aca="false">F38 + (F38*20%)</f>
-        <v>376.8</v>
+        <v>67.2</v>
       </c>
       <c r="H38" s="11" t="n">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="I38" s="11" t="n">
         <v>0</v>
@@ -3403,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="14" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="L38" s="15"/>
       <c r="M38" s="15"/>
@@ -3426,31 +3577,31 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="n">
-        <v>1412</v>
+        <v>1303</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D39" s="13" t="n">
-        <v>769</v>
+        <v>46.2</v>
       </c>
       <c r="E39" s="13" t="n">
         <f aca="false">(D39-D39*10%)</f>
-        <v>692.1</v>
+        <v>41.58</v>
       </c>
       <c r="F39" s="13" t="n">
-        <f aca="false">ROUND(E39*1.5,0)</f>
-        <v>1038</v>
+        <f aca="false">ROUNDDOWN(E39*1.5,0)</f>
+        <v>62</v>
       </c>
       <c r="G39" s="13" t="n">
         <f aca="false">F39 + (F39*20%)</f>
-        <v>1245.6</v>
+        <v>74.4</v>
       </c>
       <c r="H39" s="11" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="I39" s="11" t="n">
         <v>0</v>
@@ -3460,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="14" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="L39" s="15"/>
       <c r="M39" s="15"/>
@@ -3483,31 +3634,31 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="n">
-        <v>1403</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>76</v>
+        <v>1312</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D40" s="13" t="n">
-        <v>3000</v>
+        <v>232.7</v>
       </c>
       <c r="E40" s="13" t="n">
         <f aca="false">(D40-D40*10%)</f>
-        <v>2700</v>
+        <v>209.43</v>
       </c>
       <c r="F40" s="13" t="n">
-        <f aca="false">ROUND(E40*1.5,0)</f>
-        <v>4050</v>
+        <f aca="false">ROUNDDOWN(E40*1.5,0)</f>
+        <v>314</v>
       </c>
       <c r="G40" s="13" t="n">
         <f aca="false">F40 + (F40*20%)</f>
-        <v>4860</v>
+        <v>376.8</v>
       </c>
       <c r="H40" s="11" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="I40" s="11" t="n">
         <v>0</v>
@@ -3517,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="14" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="L40" s="15"/>
       <c r="M40" s="15"/>
@@ -3540,31 +3691,31 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="10" t="n">
-        <v>1404</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>76</v>
+        <v>1412</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>91</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D41" s="13" t="n">
-        <v>5386.4</v>
+        <v>769</v>
       </c>
       <c r="E41" s="13" t="n">
         <f aca="false">(D41-D41*10%)</f>
-        <v>4847.76</v>
+        <v>692.1</v>
       </c>
       <c r="F41" s="13" t="n">
-        <f aca="false">ROUND(E41*1.5,0)</f>
-        <v>7272</v>
+        <f aca="false">ROUNDDOWN(E41*1.5,0)</f>
+        <v>1038</v>
       </c>
       <c r="G41" s="13" t="n">
         <f aca="false">F41 + (F41*20%)</f>
-        <v>8726.4</v>
+        <v>1245.6</v>
       </c>
       <c r="H41" s="11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I41" s="11" t="n">
         <v>0</v>
@@ -3574,7 +3725,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="14" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="L41" s="15"/>
       <c r="M41" s="15"/>
@@ -3597,31 +3748,31 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="10" t="n">
-        <v>1407</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>77</v>
+        <v>1403</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D42" s="13" t="n">
-        <v>218.2</v>
+        <v>3000</v>
       </c>
       <c r="E42" s="13" t="n">
         <f aca="false">(D42-D42*10%)</f>
-        <v>196.38</v>
+        <v>2700</v>
       </c>
       <c r="F42" s="13" t="n">
-        <f aca="false">ROUND(E42*1.5,0)</f>
-        <v>295</v>
+        <f aca="false">ROUNDDOWN(E42*1.5,0)</f>
+        <v>4050</v>
       </c>
       <c r="G42" s="13" t="n">
         <f aca="false">F42 + (F42*20%)</f>
-        <v>354</v>
+        <v>4860</v>
       </c>
       <c r="H42" s="11" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I42" s="11" t="n">
         <v>0</v>
@@ -3631,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="14" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="L42" s="15"/>
       <c r="M42" s="15"/>
@@ -3654,31 +3805,31 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="10" t="n">
-        <v>1406</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>80</v>
+        <v>1404</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="D43" s="13" t="n">
-        <v>35.7</v>
+        <v>5386.4</v>
       </c>
       <c r="E43" s="13" t="n">
         <f aca="false">(D43-D43*10%)</f>
-        <v>32.13</v>
+        <v>4847.76</v>
       </c>
       <c r="F43" s="13" t="n">
-        <f aca="false">ROUND(E43*1.5,0)</f>
-        <v>48</v>
+        <f aca="false">ROUNDDOWN(E43*1.5,0)</f>
+        <v>7271</v>
       </c>
       <c r="G43" s="13" t="n">
         <f aca="false">F43 + (F43*20%)</f>
-        <v>57.6</v>
+        <v>8725.2</v>
       </c>
       <c r="H43" s="11" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I43" s="11" t="n">
         <v>0</v>
@@ -3688,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="14" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="L43" s="15"/>
       <c r="M43" s="15"/>
@@ -3711,31 +3862,31 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="10" t="n">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="D44" s="13" t="n">
-        <v>179.3</v>
+        <v>218.2</v>
       </c>
       <c r="E44" s="13" t="n">
         <f aca="false">(D44-D44*10%)</f>
-        <v>161.37</v>
+        <v>196.38</v>
       </c>
       <c r="F44" s="13" t="n">
-        <f aca="false">ROUND(E44*1.5,0)</f>
-        <v>242</v>
+        <f aca="false">ROUNDDOWN(E44*1.5,0)</f>
+        <v>294</v>
       </c>
       <c r="G44" s="13" t="n">
         <f aca="false">F44 + (F44*20%)</f>
-        <v>290.4</v>
+        <v>352.8</v>
       </c>
       <c r="H44" s="11" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I44" s="11" t="n">
         <v>0</v>
@@ -3745,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="14" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="L44" s="15"/>
       <c r="M44" s="15"/>
@@ -3768,28 +3919,28 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="10" t="n">
-        <v>1413</v>
+        <v>1406</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="D45" s="13" t="n">
-        <v>119</v>
+        <v>35.7</v>
       </c>
       <c r="E45" s="13" t="n">
         <f aca="false">(D45-D45*10%)</f>
-        <v>107.1</v>
+        <v>32.13</v>
       </c>
       <c r="F45" s="13" t="n">
-        <f aca="false">ROUND(E45*1.5,0)</f>
-        <v>161</v>
+        <f aca="false">ROUNDDOWN(E45*1.5,0)</f>
+        <v>48</v>
       </c>
       <c r="G45" s="13" t="n">
         <f aca="false">F45 + (F45*20%)</f>
-        <v>193.2</v>
+        <v>57.6</v>
       </c>
       <c r="H45" s="11" t="n">
         <v>100</v>
@@ -3802,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="14" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="L45" s="15"/>
       <c r="M45" s="15"/>
@@ -3825,31 +3976,31 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="10" t="n">
-        <v>1505</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>85</v>
+        <v>1409</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="D46" s="13" t="n">
-        <v>42.4</v>
+        <v>179.3</v>
       </c>
       <c r="E46" s="13" t="n">
         <f aca="false">(D46-D46*10%)</f>
-        <v>38.16</v>
+        <v>161.37</v>
       </c>
       <c r="F46" s="13" t="n">
-        <f aca="false">ROUND(E46*1.5,0)</f>
-        <v>57</v>
+        <f aca="false">ROUNDDOWN(E46*1.5,0)</f>
+        <v>242</v>
       </c>
       <c r="G46" s="13" t="n">
         <f aca="false">F46 + (F46*20%)</f>
-        <v>68.4</v>
+        <v>290.4</v>
       </c>
       <c r="H46" s="11" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="I46" s="11" t="n">
         <v>0</v>
@@ -3859,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="14" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="L46" s="15"/>
       <c r="M46" s="15"/>
@@ -3882,28 +4033,28 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="10" t="n">
-        <v>1504</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>88</v>
+        <v>1413</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>103</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="D47" s="13" t="n">
-        <v>42.4</v>
+        <v>119</v>
       </c>
       <c r="E47" s="13" t="n">
         <f aca="false">(D47-D47*10%)</f>
-        <v>38.16</v>
+        <v>107.1</v>
       </c>
       <c r="F47" s="13" t="n">
-        <f aca="false">ROUND(E47*1.5,0)</f>
-        <v>57</v>
+        <f aca="false">ROUNDDOWN(E47*1.5,0)</f>
+        <v>160</v>
       </c>
       <c r="G47" s="13" t="n">
         <f aca="false">F47 + (F47*20%)</f>
-        <v>68.4</v>
+        <v>192</v>
       </c>
       <c r="H47" s="11" t="n">
         <v>100</v>
@@ -3916,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="14" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="L47" s="15"/>
       <c r="M47" s="15"/>
@@ -3939,31 +4090,31 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="n">
-        <v>1502</v>
+        <v>1505</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="D48" s="13" t="n">
-        <v>233.4</v>
+        <v>42.4</v>
       </c>
       <c r="E48" s="13" t="n">
         <f aca="false">(D48-D48*10%)</f>
-        <v>210.06</v>
+        <v>38.16</v>
       </c>
       <c r="F48" s="13" t="n">
-        <f aca="false">ROUND(E48*1.5,0)</f>
-        <v>315</v>
+        <f aca="false">ROUNDDOWN(E48*1.5,0)</f>
+        <v>57</v>
       </c>
       <c r="G48" s="13" t="n">
         <f aca="false">F48 + (F48*20%)</f>
-        <v>378</v>
+        <v>68.4</v>
       </c>
       <c r="H48" s="11" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="I48" s="11" t="n">
         <v>0</v>
@@ -3973,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="14" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="L48" s="15"/>
       <c r="M48" s="15"/>
@@ -3996,31 +4147,31 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="10" t="n">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="D49" s="13" t="n">
-        <v>177</v>
+        <v>42.4</v>
       </c>
       <c r="E49" s="13" t="n">
         <f aca="false">(D49-D49*10%)</f>
-        <v>159.3</v>
+        <v>38.16</v>
       </c>
       <c r="F49" s="13" t="n">
-        <f aca="false">ROUND(E49*1.5,0)</f>
-        <v>239</v>
+        <f aca="false">ROUNDDOWN(E49*1.5,0)</f>
+        <v>57</v>
       </c>
       <c r="G49" s="13" t="n">
         <f aca="false">F49 + (F49*20%)</f>
-        <v>286.8</v>
+        <v>68.4</v>
       </c>
       <c r="H49" s="11" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="I49" s="11" t="n">
         <v>0</v>
@@ -4030,7 +4181,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="14" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="L49" s="15"/>
       <c r="M49" s="15"/>
@@ -4053,31 +4204,31 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="10" t="n">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="D50" s="13" t="n">
-        <v>397.4</v>
+        <v>233.4</v>
       </c>
       <c r="E50" s="13" t="n">
         <f aca="false">(D50-D50*10%)</f>
-        <v>357.66</v>
+        <v>210.06</v>
       </c>
       <c r="F50" s="13" t="n">
-        <f aca="false">ROUND(E50*1.5,0)</f>
-        <v>536</v>
+        <f aca="false">ROUNDDOWN(E50*1.5,0)</f>
+        <v>315</v>
       </c>
       <c r="G50" s="13" t="n">
         <f aca="false">F50 + (F50*20%)</f>
-        <v>643.2</v>
+        <v>378</v>
       </c>
       <c r="H50" s="11" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I50" s="11" t="n">
         <v>0</v>
@@ -4087,7 +4238,7 @@
         <v>0</v>
       </c>
       <c r="K50" s="14" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="L50" s="15"/>
       <c r="M50" s="15"/>
@@ -4110,31 +4261,31 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="10" t="n">
-        <v>1604</v>
+        <v>1507</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="D51" s="13" t="n">
-        <v>9557.9</v>
+        <v>177</v>
       </c>
       <c r="E51" s="13" t="n">
         <f aca="false">(D51-D51*10%)</f>
-        <v>8602.11</v>
+        <v>159.3</v>
       </c>
       <c r="F51" s="13" t="n">
-        <f aca="false">ROUND(E51*1.5,0)</f>
-        <v>12903</v>
+        <f aca="false">ROUNDDOWN(E51*1.5,0)</f>
+        <v>238</v>
       </c>
       <c r="G51" s="13" t="n">
         <f aca="false">F51 + (F51*20%)</f>
-        <v>15483.6</v>
+        <v>285.6</v>
       </c>
       <c r="H51" s="11" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="I51" s="11" t="n">
         <v>0</v>
@@ -4144,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="K51" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L51" s="15"/>
       <c r="M51" s="15"/>
@@ -4167,31 +4318,31 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="10" t="n">
-        <v>1601</v>
+        <v>1503</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="D52" s="13" t="n">
-        <v>281.9</v>
+        <v>397.4</v>
       </c>
       <c r="E52" s="13" t="n">
         <f aca="false">(D52-D52*10%)</f>
-        <v>253.71</v>
+        <v>357.66</v>
       </c>
       <c r="F52" s="13" t="n">
-        <f aca="false">ROUND(E52*1.5,0)</f>
-        <v>381</v>
+        <f aca="false">ROUNDDOWN(E52*1.5,0)</f>
+        <v>536</v>
       </c>
       <c r="G52" s="13" t="n">
         <f aca="false">F52 + (F52*20%)</f>
-        <v>457.2</v>
+        <v>643.2</v>
       </c>
       <c r="H52" s="11" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I52" s="11" t="n">
         <v>0</v>
@@ -4201,7 +4352,7 @@
         <v>0</v>
       </c>
       <c r="K52" s="14" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="L52" s="15"/>
       <c r="M52" s="15"/>
@@ -4224,31 +4375,31 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="10" t="n">
-        <v>1903</v>
+        <v>1604</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D53" s="13" t="n">
-        <v>39.7</v>
+        <v>9557.9</v>
       </c>
       <c r="E53" s="13" t="n">
         <f aca="false">(D53-D53*10%)</f>
-        <v>35.73</v>
+        <v>8602.11</v>
       </c>
       <c r="F53" s="13" t="n">
-        <f aca="false">ROUND(E53*1.5,0)</f>
-        <v>54</v>
+        <f aca="false">ROUNDDOWN(E53*1.5,0)</f>
+        <v>12903</v>
       </c>
       <c r="G53" s="13" t="n">
         <f aca="false">F53 + (F53*20%)</f>
-        <v>64.8</v>
+        <v>15483.6</v>
       </c>
       <c r="H53" s="11" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I53" s="11" t="n">
         <v>0</v>
@@ -4258,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="K53" s="14" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="L53" s="15"/>
       <c r="M53" s="15"/>
@@ -4281,31 +4432,31 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="10" t="n">
-        <v>1904</v>
+        <v>1601</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="D54" s="13" t="n">
-        <v>40.4</v>
+        <v>281.9</v>
       </c>
       <c r="E54" s="13" t="n">
         <f aca="false">(D54-D54*10%)</f>
-        <v>36.36</v>
+        <v>253.71</v>
       </c>
       <c r="F54" s="13" t="n">
-        <f aca="false">ROUND(E54*1.5,0)</f>
-        <v>55</v>
+        <f aca="false">ROUNDDOWN(E54*1.5,0)</f>
+        <v>380</v>
       </c>
       <c r="G54" s="13" t="n">
         <f aca="false">F54 + (F54*20%)</f>
-        <v>66</v>
+        <v>456</v>
       </c>
       <c r="H54" s="11" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="I54" s="11" t="n">
         <v>0</v>
@@ -4315,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="14" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="L54" s="15"/>
       <c r="M54" s="15"/>
@@ -4338,31 +4489,31 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="10" t="n">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="D55" s="13" t="n">
-        <v>170.9</v>
+        <v>39.7</v>
       </c>
       <c r="E55" s="13" t="n">
         <f aca="false">(D55-D55*10%)</f>
-        <v>153.81</v>
+        <v>35.73</v>
       </c>
       <c r="F55" s="13" t="n">
-        <f aca="false">ROUND(E55*1.5,0)</f>
-        <v>231</v>
+        <f aca="false">ROUNDDOWN(E55*1.5,0)</f>
+        <v>53</v>
       </c>
       <c r="G55" s="13" t="n">
         <f aca="false">F55 + (F55*20%)</f>
-        <v>277.2</v>
+        <v>63.6</v>
       </c>
       <c r="H55" s="11" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="I55" s="11" t="n">
         <v>0</v>
@@ -4372,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="14" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="L55" s="15"/>
       <c r="M55" s="15"/>
@@ -4395,28 +4546,28 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="10" t="n">
-        <v>1910</v>
-      </c>
-      <c r="B56" s="16" t="s">
-        <v>104</v>
+        <v>1904</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>120</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="D56" s="13" t="n">
-        <v>36.2</v>
+        <v>40.4</v>
       </c>
       <c r="E56" s="13" t="n">
         <f aca="false">(D56-D56*10%)</f>
-        <v>32.58</v>
+        <v>36.36</v>
       </c>
       <c r="F56" s="13" t="n">
-        <f aca="false">ROUND(E56*1.5,0)</f>
-        <v>49</v>
+        <f aca="false">ROUNDDOWN(E56*1.5,0)</f>
+        <v>54</v>
       </c>
       <c r="G56" s="13" t="n">
         <f aca="false">F56 + (F56*20%)</f>
-        <v>58.8</v>
+        <v>64.8</v>
       </c>
       <c r="H56" s="11" t="n">
         <v>100</v>
@@ -4429,7 +4580,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="14" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="L56" s="15"/>
       <c r="M56" s="15"/>
@@ -4452,31 +4603,31 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="10" t="n">
-        <v>1913</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>106</v>
+        <v>1905</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>122</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D57" s="13" t="n">
-        <v>700.2</v>
+        <v>170.9</v>
       </c>
       <c r="E57" s="13" t="n">
         <f aca="false">(D57-D57*10%)</f>
-        <v>630.18</v>
+        <v>153.81</v>
       </c>
       <c r="F57" s="13" t="n">
-        <f aca="false">ROUND(E57*1.5,0)</f>
-        <v>945</v>
+        <f aca="false">ROUNDDOWN(E57*1.5,0)</f>
+        <v>230</v>
       </c>
       <c r="G57" s="13" t="n">
         <f aca="false">F57 + (F57*20%)</f>
-        <v>1134</v>
+        <v>276</v>
       </c>
       <c r="H57" s="11" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I57" s="11" t="n">
         <v>0</v>
@@ -4486,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="K57" s="14" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="L57" s="15"/>
       <c r="M57" s="15"/>
@@ -4509,31 +4660,31 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="10" t="n">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="D58" s="13" t="n">
-        <v>122.6</v>
+        <v>36.2</v>
       </c>
       <c r="E58" s="13" t="n">
         <f aca="false">(D58-D58*10%)</f>
-        <v>110.34</v>
+        <v>32.58</v>
       </c>
       <c r="F58" s="13" t="n">
-        <f aca="false">ROUND(E58*1.5,0)</f>
-        <v>166</v>
+        <f aca="false">ROUNDDOWN(E58*1.5,0)</f>
+        <v>48</v>
       </c>
       <c r="G58" s="13" t="n">
         <f aca="false">F58 + (F58*20%)</f>
-        <v>199.2</v>
+        <v>57.6</v>
       </c>
       <c r="H58" s="11" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="I58" s="11" t="n">
         <v>0</v>
@@ -4543,7 +4694,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="14" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="L58" s="15"/>
       <c r="M58" s="15"/>
@@ -4566,31 +4717,31 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="10" t="n">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="D59" s="13" t="n">
-        <v>276.4</v>
+        <v>700.2</v>
       </c>
       <c r="E59" s="13" t="n">
         <f aca="false">(D59-D59*10%)</f>
-        <v>248.76</v>
+        <v>630.18</v>
       </c>
       <c r="F59" s="13" t="n">
-        <f aca="false">ROUND(E59*1.5,0)</f>
-        <v>373</v>
+        <f aca="false">ROUNDDOWN(E59*1.5,0)</f>
+        <v>945</v>
       </c>
       <c r="G59" s="13" t="n">
         <f aca="false">F59 + (F59*20%)</f>
-        <v>447.6</v>
+        <v>1134</v>
       </c>
       <c r="H59" s="11" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I59" s="11" t="n">
         <v>0</v>
@@ -4600,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="K59" s="14" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="L59" s="15"/>
       <c r="M59" s="15"/>
@@ -4623,31 +4774,31 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="10" t="n">
-        <v>1914</v>
+        <v>1911</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D60" s="13" t="n">
-        <v>257</v>
+        <v>122.6</v>
       </c>
       <c r="E60" s="13" t="n">
         <f aca="false">(D60-D60*10%)</f>
-        <v>231.3</v>
+        <v>110.34</v>
       </c>
       <c r="F60" s="13" t="n">
-        <f aca="false">ROUND(E60*1.5,0)</f>
-        <v>347</v>
+        <f aca="false">ROUNDDOWN(E60*1.5,0)</f>
+        <v>165</v>
       </c>
       <c r="G60" s="13" t="n">
         <f aca="false">F60 + (F60*20%)</f>
-        <v>416.4</v>
+        <v>198</v>
       </c>
       <c r="H60" s="11" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I60" s="11" t="n">
         <v>0</v>
@@ -4657,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="K60" s="14" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="L60" s="15"/>
       <c r="M60" s="15"/>
@@ -4680,31 +4831,31 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="10" t="n">
-        <v>1920</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>114</v>
+        <v>1912</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>130</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="D61" s="13" t="n">
-        <v>41.2</v>
+        <v>276.4</v>
       </c>
       <c r="E61" s="13" t="n">
         <f aca="false">(D61-D61*10%)</f>
-        <v>37.08</v>
+        <v>248.76</v>
       </c>
       <c r="F61" s="13" t="n">
-        <f aca="false">ROUND(E61*1.5,0)</f>
-        <v>56</v>
+        <f aca="false">ROUNDDOWN(E61*1.5,0)</f>
+        <v>373</v>
       </c>
       <c r="G61" s="13" t="n">
         <f aca="false">F61 + (F61*20%)</f>
-        <v>67.2</v>
+        <v>447.6</v>
       </c>
       <c r="H61" s="11" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="I61" s="11" t="n">
         <v>0</v>
@@ -4714,7 +4865,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="14" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="L61" s="15"/>
       <c r="M61" s="15"/>
@@ -4737,28 +4888,28 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="10" t="n">
-        <v>8502</v>
+        <v>1914</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D62" s="13" t="n">
-        <v>227.8</v>
+        <v>257</v>
       </c>
       <c r="E62" s="13" t="n">
         <f aca="false">(D62-D62*10%)</f>
-        <v>205.02</v>
+        <v>231.3</v>
       </c>
       <c r="F62" s="13" t="n">
-        <f aca="false">ROUND(E62*1.5,0)</f>
-        <v>308</v>
+        <f aca="false">ROUNDDOWN(E62*1.5,0)</f>
+        <v>346</v>
       </c>
       <c r="G62" s="13" t="n">
         <f aca="false">F62 + (F62*20%)</f>
-        <v>369.6</v>
+        <v>415.2</v>
       </c>
       <c r="H62" s="11" t="n">
         <v>20</v>
@@ -4771,7 +4922,7 @@
         <v>0</v>
       </c>
       <c r="K62" s="14" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="L62" s="15"/>
       <c r="M62" s="15"/>
@@ -4794,28 +4945,28 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="10" t="n">
-        <v>8003</v>
+        <v>1920</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D63" s="13" t="n">
-        <v>36.8</v>
+        <v>41.2</v>
       </c>
       <c r="E63" s="13" t="n">
         <f aca="false">(D63-D63*10%)</f>
-        <v>33.12</v>
+        <v>37.08</v>
       </c>
       <c r="F63" s="13" t="n">
-        <f aca="false">ROUND(E63*1.5,0)</f>
-        <v>50</v>
+        <f aca="false">ROUNDDOWN(E63*1.5,0)</f>
+        <v>55</v>
       </c>
       <c r="G63" s="13" t="n">
         <f aca="false">F63 + (F63*20%)</f>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H63" s="11" t="n">
         <v>100</v>
@@ -4828,7 +4979,7 @@
         <v>0</v>
       </c>
       <c r="K63" s="14" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="L63" s="15"/>
       <c r="M63" s="15"/>
@@ -4851,31 +5002,31 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="10" t="n">
-        <v>8406</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>121</v>
+        <v>8502</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D64" s="13" t="n">
-        <v>299</v>
+        <v>227.8</v>
       </c>
       <c r="E64" s="13" t="n">
         <f aca="false">(D64-D64*10%)</f>
-        <v>269.1</v>
+        <v>205.02</v>
       </c>
       <c r="F64" s="13" t="n">
-        <f aca="false">ROUND(E64*1.5,0)</f>
-        <v>404</v>
+        <f aca="false">ROUNDDOWN(E64*1.5,0)</f>
+        <v>307</v>
       </c>
       <c r="G64" s="13" t="n">
         <f aca="false">F64 + (F64*20%)</f>
-        <v>484.8</v>
+        <v>368.4</v>
       </c>
       <c r="H64" s="11" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I64" s="11" t="n">
         <v>0</v>
@@ -4885,7 +5036,7 @@
         <v>0</v>
       </c>
       <c r="K64" s="14" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="L64" s="15"/>
       <c r="M64" s="15"/>
@@ -4908,31 +5059,31 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="10" t="n">
-        <v>8408</v>
+        <v>8003</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>21</v>
+        <v>139</v>
       </c>
       <c r="D65" s="13" t="n">
-        <v>299</v>
+        <v>36.8</v>
       </c>
       <c r="E65" s="13" t="n">
         <f aca="false">(D65-D65*10%)</f>
-        <v>269.1</v>
+        <v>33.12</v>
       </c>
       <c r="F65" s="13" t="n">
-        <f aca="false">ROUND(E65*1.5,0)</f>
-        <v>404</v>
+        <f aca="false">ROUNDDOWN(E65*1.5,0)</f>
+        <v>49</v>
       </c>
       <c r="G65" s="13" t="n">
         <f aca="false">F65 + (F65*20%)</f>
-        <v>484.8</v>
+        <v>58.8</v>
       </c>
       <c r="H65" s="11" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I65" s="11" t="n">
         <v>0</v>
@@ -4942,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="K65" s="14" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="L65" s="15"/>
       <c r="M65" s="15"/>
@@ -4965,28 +5116,28 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="10" t="n">
-        <v>8409</v>
+        <v>8406</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D66" s="13" t="n">
-        <v>252.4</v>
+        <v>299</v>
       </c>
       <c r="E66" s="13" t="n">
         <f aca="false">(D66-D66*10%)</f>
-        <v>227.16</v>
+        <v>269.1</v>
       </c>
       <c r="F66" s="13" t="n">
-        <f aca="false">ROUND(E66*1.5,0)</f>
-        <v>341</v>
+        <f aca="false">ROUNDDOWN(E66*1.5,0)</f>
+        <v>403</v>
       </c>
       <c r="G66" s="13" t="n">
         <f aca="false">F66 + (F66*20%)</f>
-        <v>409.2</v>
+        <v>483.6</v>
       </c>
       <c r="H66" s="11" t="n">
         <v>12</v>
@@ -4999,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="14" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="L66" s="15"/>
       <c r="M66" s="15"/>
@@ -5022,31 +5173,31 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="10" t="n">
-        <v>1702</v>
+        <v>8408</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D67" s="13" t="n">
-        <v>1374.5</v>
+        <v>299</v>
       </c>
       <c r="E67" s="13" t="n">
         <f aca="false">(D67-D67*10%)</f>
-        <v>1237.05</v>
+        <v>269.1</v>
       </c>
       <c r="F67" s="13" t="n">
-        <f aca="false">ROUND(E67*1.5,0)</f>
-        <v>1856</v>
+        <f aca="false">ROUNDDOWN(E67*1.5,0)</f>
+        <v>403</v>
       </c>
       <c r="G67" s="13" t="n">
         <f aca="false">F67 + (F67*20%)</f>
-        <v>2227.2</v>
+        <v>483.6</v>
       </c>
       <c r="H67" s="11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I67" s="11" t="n">
         <v>0</v>
@@ -5056,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="K67" s="14" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="L67" s="15"/>
       <c r="M67" s="15"/>
@@ -5079,31 +5230,31 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="10" t="n">
-        <v>1701</v>
+        <v>8409</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="D68" s="13" t="n">
-        <v>248.3</v>
+        <v>252.4</v>
       </c>
       <c r="E68" s="13" t="n">
         <f aca="false">(D68-D68*10%)</f>
-        <v>223.47</v>
+        <v>227.16</v>
       </c>
       <c r="F68" s="13" t="n">
-        <f aca="false">ROUND(E68*1.5,0)</f>
-        <v>335</v>
+        <f aca="false">ROUNDDOWN(E68*1.5,0)</f>
+        <v>340</v>
       </c>
       <c r="G68" s="13" t="n">
         <f aca="false">F68 + (F68*20%)</f>
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="H68" s="11" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I68" s="11" t="n">
         <v>0</v>
@@ -5113,7 +5264,7 @@
         <v>0</v>
       </c>
       <c r="K68" s="14" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="L68" s="15"/>
       <c r="M68" s="15"/>
@@ -5136,31 +5287,31 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="10" t="n">
-        <v>1012</v>
+        <v>1702</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="D69" s="13" t="n">
-        <v>129</v>
+        <v>1374.5</v>
       </c>
       <c r="E69" s="13" t="n">
         <f aca="false">(D69-D69*10%)</f>
-        <v>116.1</v>
+        <v>1237.05</v>
       </c>
       <c r="F69" s="13" t="n">
-        <f aca="false">ROUND(E69*1.5,0)</f>
-        <v>174</v>
+        <f aca="false">ROUNDDOWN(E69*1.5,0)</f>
+        <v>1855</v>
       </c>
       <c r="G69" s="13" t="n">
         <f aca="false">F69 + (F69*20%)</f>
-        <v>208.8</v>
+        <v>2226</v>
       </c>
       <c r="H69" s="11" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="I69" s="11" t="n">
         <v>0</v>
@@ -5170,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="K69" s="14" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="L69" s="15"/>
       <c r="M69" s="15"/>
@@ -5193,31 +5344,31 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="10" t="n">
-        <v>1011</v>
+        <v>1701</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="D70" s="13" t="n">
-        <v>99</v>
+        <v>248.3</v>
       </c>
       <c r="E70" s="13" t="n">
         <f aca="false">(D70-D70*10%)</f>
-        <v>89.1</v>
+        <v>223.47</v>
       </c>
       <c r="F70" s="13" t="n">
-        <f aca="false">ROUND(E70*1.5,0)</f>
-        <v>134</v>
+        <f aca="false">ROUNDDOWN(E70*1.5,0)</f>
+        <v>335</v>
       </c>
       <c r="G70" s="13" t="n">
         <f aca="false">F70 + (F70*20%)</f>
-        <v>160.8</v>
+        <v>402</v>
       </c>
       <c r="H70" s="11" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I70" s="11" t="n">
         <v>0</v>
@@ -5227,7 +5378,7 @@
         <v>0</v>
       </c>
       <c r="K70" s="14" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="L70" s="15"/>
       <c r="M70" s="15"/>
@@ -5250,31 +5401,31 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="10" t="n">
-        <v>8404</v>
+        <v>1012</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>13</v>
+        <v>153</v>
       </c>
       <c r="D71" s="13" t="n">
-        <v>84.7</v>
+        <v>129</v>
       </c>
       <c r="E71" s="13" t="n">
         <f aca="false">(D71-D71*10%)</f>
-        <v>76.23</v>
+        <v>116.1</v>
       </c>
       <c r="F71" s="13" t="n">
-        <f aca="false">ROUND(E71*1.5,0)</f>
-        <v>114</v>
+        <f aca="false">ROUNDDOWN(E71*1.5,0)</f>
+        <v>174</v>
       </c>
       <c r="G71" s="13" t="n">
         <f aca="false">F71 + (F71*20%)</f>
-        <v>136.8</v>
+        <v>208.8</v>
       </c>
       <c r="H71" s="11" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I71" s="11" t="n">
         <v>0</v>
@@ -5284,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="K71" s="14" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="L71" s="15"/>
       <c r="M71" s="15"/>
@@ -5307,31 +5458,31 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="10" t="n">
-        <v>3303</v>
+        <v>1011</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D72" s="13" t="n">
-        <v>1119.3</v>
+        <v>99</v>
       </c>
       <c r="E72" s="13" t="n">
         <f aca="false">(D72-D72*10%)</f>
-        <v>1007.37</v>
+        <v>89.1</v>
       </c>
       <c r="F72" s="13" t="n">
-        <f aca="false">ROUND(E72*1.5,0)</f>
-        <v>1511</v>
+        <f aca="false">ROUNDDOWN(E72*1.5,0)</f>
+        <v>133</v>
       </c>
       <c r="G72" s="13" t="n">
         <f aca="false">F72 + (F72*20%)</f>
-        <v>1813.2</v>
+        <v>159.6</v>
       </c>
       <c r="H72" s="11" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="I72" s="11" t="n">
         <v>0</v>
@@ -5341,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="K72" s="14" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="L72" s="15"/>
       <c r="M72" s="15"/>
@@ -5364,31 +5515,31 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="10" t="n">
-        <v>3304</v>
+        <v>8404</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="D73" s="13" t="n">
-        <v>1621.4</v>
+        <v>84.7</v>
       </c>
       <c r="E73" s="13" t="n">
         <f aca="false">(D73-D73*10%)</f>
-        <v>1459.26</v>
+        <v>76.23</v>
       </c>
       <c r="F73" s="13" t="n">
-        <f aca="false">ROUND(E73*1.5,0)</f>
-        <v>2189</v>
+        <f aca="false">ROUNDDOWN(E73*1.5,0)</f>
+        <v>114</v>
       </c>
       <c r="G73" s="13" t="n">
         <f aca="false">F73 + (F73*20%)</f>
-        <v>2626.8</v>
+        <v>136.8</v>
       </c>
       <c r="H73" s="11" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="I73" s="11" t="n">
         <v>0</v>
@@ -5398,7 +5549,7 @@
         <v>0</v>
       </c>
       <c r="K73" s="14" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="L73" s="15"/>
       <c r="M73" s="15"/>
@@ -5421,31 +5572,31 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="10" t="n">
-        <v>3301</v>
+        <v>3303</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="D74" s="13" t="n">
-        <v>199.8</v>
+        <v>1119.3</v>
       </c>
       <c r="E74" s="13" t="n">
         <f aca="false">(D74-D74*10%)</f>
-        <v>179.82</v>
+        <v>1007.37</v>
       </c>
       <c r="F74" s="13" t="n">
-        <f aca="false">ROUND(E74*1.5,0)</f>
-        <v>270</v>
+        <f aca="false">ROUNDDOWN(E74*1.5,0)</f>
+        <v>1511</v>
       </c>
       <c r="G74" s="13" t="n">
         <f aca="false">F74 + (F74*20%)</f>
-        <v>324</v>
+        <v>1813.2</v>
       </c>
       <c r="H74" s="11" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="I74" s="11" t="n">
         <v>0</v>
@@ -5455,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="K74" s="14" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="L74" s="15"/>
       <c r="M74" s="15"/>
@@ -5478,31 +5629,31 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="10" t="n">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="D75" s="13" t="n">
-        <v>69.7</v>
+        <v>1621.4</v>
       </c>
       <c r="E75" s="13" t="n">
         <f aca="false">(D75-D75*10%)</f>
-        <v>62.73</v>
+        <v>1459.26</v>
       </c>
       <c r="F75" s="13" t="n">
-        <f aca="false">ROUND(E75*1.5,0)</f>
-        <v>94</v>
+        <f aca="false">ROUNDDOWN(E75*1.5,0)</f>
+        <v>2188</v>
       </c>
       <c r="G75" s="13" t="n">
         <f aca="false">F75 + (F75*20%)</f>
-        <v>112.8</v>
+        <v>2625.6</v>
       </c>
       <c r="H75" s="11" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="I75" s="11" t="n">
         <v>0</v>
@@ -5512,7 +5663,7 @@
         <v>0</v>
       </c>
       <c r="K75" s="14" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="L75" s="15"/>
       <c r="M75" s="15"/>
@@ -5535,31 +5686,31 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="10" t="n">
-        <v>3403</v>
+        <v>3301</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="D76" s="13" t="n">
-        <v>603.8</v>
+        <v>199.8</v>
       </c>
       <c r="E76" s="13" t="n">
         <f aca="false">(D76-D76*10%)</f>
-        <v>543.42</v>
+        <v>179.82</v>
       </c>
       <c r="F76" s="13" t="n">
-        <f aca="false">ROUND(E76*1.5,0)</f>
-        <v>815</v>
+        <f aca="false">ROUNDDOWN(E76*1.5,0)</f>
+        <v>269</v>
       </c>
       <c r="G76" s="13" t="n">
         <f aca="false">F76 + (F76*20%)</f>
-        <v>978</v>
+        <v>322.8</v>
       </c>
       <c r="H76" s="11" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I76" s="11" t="n">
         <v>0</v>
@@ -5569,7 +5720,7 @@
         <v>0</v>
       </c>
       <c r="K76" s="14" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="L76" s="15"/>
       <c r="M76" s="15"/>
@@ -5592,31 +5743,31 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="10" t="n">
-        <v>3404</v>
+        <v>3305</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D77" s="13" t="n">
-        <v>882.1</v>
+        <v>69.7</v>
       </c>
       <c r="E77" s="13" t="n">
         <f aca="false">(D77-D77*10%)</f>
-        <v>793.89</v>
+        <v>62.73</v>
       </c>
       <c r="F77" s="13" t="n">
-        <f aca="false">ROUND(E77*1.5,0)</f>
-        <v>1191</v>
+        <f aca="false">ROUNDDOWN(E77*1.5,0)</f>
+        <v>94</v>
       </c>
       <c r="G77" s="13" t="n">
         <f aca="false">F77 + (F77*20%)</f>
-        <v>1429.2</v>
+        <v>112.8</v>
       </c>
       <c r="H77" s="11" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="I77" s="11" t="n">
         <v>0</v>
@@ -5626,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="K77" s="14" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="L77" s="15"/>
       <c r="M77" s="15"/>
@@ -5649,31 +5800,31 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="10" t="n">
-        <v>3401</v>
+        <v>3403</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="D78" s="13" t="n">
-        <v>110.6</v>
+        <v>603.8</v>
       </c>
       <c r="E78" s="13" t="n">
         <f aca="false">(D78-D78*10%)</f>
-        <v>99.54</v>
+        <v>543.42</v>
       </c>
       <c r="F78" s="13" t="n">
-        <f aca="false">ROUND(E78*1.5,0)</f>
-        <v>149</v>
+        <f aca="false">ROUNDDOWN(E78*1.5,0)</f>
+        <v>815</v>
       </c>
       <c r="G78" s="13" t="n">
         <f aca="false">F78 + (F78*20%)</f>
-        <v>178.8</v>
+        <v>978</v>
       </c>
       <c r="H78" s="11" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="I78" s="11" t="n">
         <v>0</v>
@@ -5683,7 +5834,7 @@
         <v>0</v>
       </c>
       <c r="K78" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L78" s="15"/>
       <c r="M78" s="15"/>
@@ -5706,28 +5857,28 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="10" t="n">
-        <v>3203</v>
+        <v>3404</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>37</v>
+        <v>161</v>
       </c>
       <c r="D79" s="13" t="n">
-        <v>708.3</v>
+        <v>882.1</v>
       </c>
       <c r="E79" s="13" t="n">
         <f aca="false">(D79-D79*10%)</f>
-        <v>637.47</v>
+        <v>793.89</v>
       </c>
       <c r="F79" s="13" t="n">
-        <f aca="false">ROUND(E79*1.5,0)</f>
-        <v>956</v>
+        <f aca="false">ROUNDDOWN(E79*1.5,0)</f>
+        <v>1190</v>
       </c>
       <c r="G79" s="13" t="n">
         <f aca="false">F79 + (F79*20%)</f>
-        <v>1147.2</v>
+        <v>1428</v>
       </c>
       <c r="H79" s="11" t="n">
         <v>1</v>
@@ -5740,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="K79" s="14" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="L79" s="15"/>
       <c r="M79" s="15"/>
@@ -5763,31 +5914,31 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="10" t="n">
-        <v>3204</v>
+        <v>3401</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D80" s="13" t="n">
-        <v>1035.8</v>
+        <v>110.6</v>
       </c>
       <c r="E80" s="13" t="n">
         <f aca="false">(D80-D80*10%)</f>
-        <v>932.22</v>
+        <v>99.54</v>
       </c>
       <c r="F80" s="13" t="n">
-        <f aca="false">ROUND(E80*1.5,0)</f>
-        <v>1398</v>
+        <f aca="false">ROUNDDOWN(E80*1.5,0)</f>
+        <v>149</v>
       </c>
       <c r="G80" s="13" t="n">
         <f aca="false">F80 + (F80*20%)</f>
-        <v>1677.6</v>
+        <v>178.8</v>
       </c>
       <c r="H80" s="11" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I80" s="11" t="n">
         <v>0</v>
@@ -5797,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="K80" s="14" t="s">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="L80" s="15"/>
       <c r="M80" s="15"/>
@@ -5820,31 +5971,31 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="10" t="n">
-        <v>3201</v>
+        <v>3203</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="D81" s="13" t="n">
-        <v>125.5</v>
+        <v>708.3</v>
       </c>
       <c r="E81" s="13" t="n">
         <f aca="false">(D81-D81*10%)</f>
-        <v>112.95</v>
+        <v>637.47</v>
       </c>
       <c r="F81" s="13" t="n">
-        <f aca="false">ROUND(E81*1.5,0)</f>
-        <v>169</v>
+        <f aca="false">ROUNDDOWN(E81*1.5,0)</f>
+        <v>956</v>
       </c>
       <c r="G81" s="13" t="n">
         <f aca="false">F81 + (F81*20%)</f>
-        <v>202.8</v>
+        <v>1147.2</v>
       </c>
       <c r="H81" s="11" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="I81" s="11" t="n">
         <v>0</v>
@@ -5854,7 +6005,7 @@
         <v>0</v>
       </c>
       <c r="K81" s="14" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="L81" s="15"/>
       <c r="M81" s="15"/>
@@ -5877,31 +6028,31 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="10" t="n">
-        <v>3101</v>
+        <v>3204</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="D82" s="13" t="n">
-        <v>115.3</v>
+        <v>1035.8</v>
       </c>
       <c r="E82" s="13" t="n">
         <f aca="false">(D82-D82*10%)</f>
-        <v>103.77</v>
+        <v>932.22</v>
       </c>
       <c r="F82" s="13" t="n">
-        <f aca="false">ROUND(E82*1.5,0)</f>
-        <v>156</v>
+        <f aca="false">ROUNDDOWN(E82*1.5,0)</f>
+        <v>1398</v>
       </c>
       <c r="G82" s="13" t="n">
         <f aca="false">F82 + (F82*20%)</f>
-        <v>187.2</v>
+        <v>1677.6</v>
       </c>
       <c r="H82" s="11" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="I82" s="11" t="n">
         <v>0</v>
@@ -5911,7 +6062,7 @@
         <v>0</v>
       </c>
       <c r="K82" s="14" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="L82" s="15"/>
       <c r="M82" s="15"/>
@@ -5934,31 +6085,31 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="10" t="n">
-        <v>5102</v>
+        <v>3201</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="D83" s="13" t="n">
-        <v>241.5</v>
+        <v>125.5</v>
       </c>
       <c r="E83" s="13" t="n">
         <f aca="false">(D83-D83*10%)</f>
-        <v>217.35</v>
+        <v>112.95</v>
       </c>
       <c r="F83" s="13" t="n">
-        <f aca="false">ROUND(E83*1.5,0)</f>
-        <v>326</v>
+        <f aca="false">ROUNDDOWN(E83*1.5,0)</f>
+        <v>169</v>
       </c>
       <c r="G83" s="13" t="n">
         <f aca="false">F83 + (F83*20%)</f>
-        <v>391.2</v>
+        <v>202.8</v>
       </c>
       <c r="H83" s="11" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I83" s="11" t="n">
         <v>0</v>
@@ -5968,7 +6119,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="14" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="L83" s="15"/>
       <c r="M83" s="15"/>
@@ -5991,31 +6142,31 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="10" t="n">
-        <v>2401</v>
+        <v>3101</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D84" s="13" t="n">
-        <v>63.5</v>
+        <v>115.3</v>
       </c>
       <c r="E84" s="13" t="n">
         <f aca="false">(D84-D84*10%)</f>
-        <v>57.15</v>
+        <v>103.77</v>
       </c>
       <c r="F84" s="13" t="n">
-        <f aca="false">ROUND(E84*1.5,0)</f>
-        <v>86</v>
+        <f aca="false">ROUNDDOWN(E84*1.5,0)</f>
+        <v>155</v>
       </c>
       <c r="G84" s="13" t="n">
         <f aca="false">F84 + (F84*20%)</f>
-        <v>103.2</v>
+        <v>186</v>
       </c>
       <c r="H84" s="11" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="I84" s="11" t="n">
         <v>0</v>
@@ -6025,7 +6176,7 @@
         <v>0</v>
       </c>
       <c r="K84" s="14" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="L84" s="15"/>
       <c r="M84" s="15"/>
@@ -6048,31 +6199,31 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="10" t="n">
-        <v>1421</v>
+        <v>5102</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D85" s="13" t="n">
-        <v>45</v>
+        <v>241.5</v>
       </c>
       <c r="E85" s="13" t="n">
         <f aca="false">(D85-D85*10%)</f>
-        <v>40.5</v>
+        <v>217.35</v>
       </c>
       <c r="F85" s="13" t="n">
-        <f aca="false">ROUND(E85*1.5,0)</f>
-        <v>61</v>
+        <f aca="false">ROUNDDOWN(E85*1.5,0)</f>
+        <v>326</v>
       </c>
       <c r="G85" s="13" t="n">
         <f aca="false">F85 + (F85*20%)</f>
-        <v>73.2</v>
+        <v>391.2</v>
       </c>
       <c r="H85" s="11" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="I85" s="11" t="n">
         <v>0</v>
@@ -6082,7 +6233,7 @@
         <v>0</v>
       </c>
       <c r="K85" s="14" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="L85" s="15"/>
       <c r="M85" s="15"/>
@@ -6105,31 +6256,31 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="10" t="n">
-        <v>8403</v>
+        <v>2401</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="D86" s="13" t="n">
-        <v>59</v>
+        <v>63.5</v>
       </c>
       <c r="E86" s="13" t="n">
         <f aca="false">(D86-D86*10%)</f>
-        <v>53.1</v>
+        <v>57.15</v>
       </c>
       <c r="F86" s="13" t="n">
-        <f aca="false">ROUND(E86*1.5,0)</f>
-        <v>80</v>
+        <f aca="false">ROUNDDOWN(E86*1.5,0)</f>
+        <v>85</v>
       </c>
       <c r="G86" s="13" t="n">
         <f aca="false">F86 + (F86*20%)</f>
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="H86" s="11" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I86" s="11" t="n">
         <v>0</v>
@@ -6139,7 +6290,7 @@
         <v>0</v>
       </c>
       <c r="K86" s="14" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="L86" s="15"/>
       <c r="M86" s="15"/>
@@ -6162,31 +6313,31 @@
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="10" t="n">
-        <v>9503</v>
+        <v>1421</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="D87" s="13" t="n">
-        <v>143.2</v>
+        <v>45</v>
       </c>
       <c r="E87" s="13" t="n">
         <f aca="false">(D87-D87*10%)</f>
-        <v>128.88</v>
+        <v>40.5</v>
       </c>
       <c r="F87" s="13" t="n">
-        <f aca="false">ROUND(E87*1.5,0)</f>
-        <v>193</v>
+        <f aca="false">ROUNDDOWN(E87*1.5,0)</f>
+        <v>60</v>
       </c>
       <c r="G87" s="13" t="n">
         <f aca="false">F87 + (F87*20%)</f>
-        <v>231.6</v>
-      </c>
-      <c r="H87" s="16" t="n">
-        <v>18</v>
+        <v>72</v>
+      </c>
+      <c r="H87" s="11" t="n">
+        <v>100</v>
       </c>
       <c r="I87" s="11" t="n">
         <v>0</v>
@@ -6196,7 +6347,7 @@
         <v>0</v>
       </c>
       <c r="K87" s="14" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="L87" s="15"/>
       <c r="M87" s="15"/>
@@ -6219,31 +6370,31 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="10" t="n">
-        <v>3601</v>
+        <v>8403</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>13</v>
+        <v>185</v>
       </c>
       <c r="D88" s="13" t="n">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="E88" s="13" t="n">
         <f aca="false">(D88-D88*10%)</f>
-        <v>108</v>
+        <v>53.1</v>
       </c>
       <c r="F88" s="13" t="n">
-        <f aca="false">ROUND(E88*1.5,0)</f>
-        <v>162</v>
+        <f aca="false">ROUNDDOWN(E88*1.5,0)</f>
+        <v>79</v>
       </c>
       <c r="G88" s="13" t="n">
         <f aca="false">F88 + (F88*20%)</f>
-        <v>194.4</v>
+        <v>94.8</v>
       </c>
       <c r="H88" s="11" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I88" s="11" t="n">
         <v>0</v>
@@ -6253,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="K88" s="14" t="s">
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="L88" s="15"/>
       <c r="M88" s="15"/>
@@ -6276,31 +6427,31 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="10" t="n">
-        <v>1806</v>
+        <v>9503</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D89" s="13" t="n">
-        <v>2954.3</v>
+        <v>143.2</v>
       </c>
       <c r="E89" s="13" t="n">
         <f aca="false">(D89-D89*10%)</f>
-        <v>2658.87</v>
+        <v>128.88</v>
       </c>
       <c r="F89" s="13" t="n">
-        <f aca="false">ROUND(E89*1.5,0)</f>
-        <v>3988</v>
+        <f aca="false">ROUNDDOWN(E89*1.5,0)</f>
+        <v>193</v>
       </c>
       <c r="G89" s="13" t="n">
         <f aca="false">F89 + (F89*20%)</f>
-        <v>4785.6</v>
-      </c>
-      <c r="H89" s="11" t="n">
-        <v>1</v>
+        <v>231.6</v>
+      </c>
+      <c r="H89" s="16" t="n">
+        <v>18</v>
       </c>
       <c r="I89" s="11" t="n">
         <v>0</v>
@@ -6310,7 +6461,7 @@
         <v>0</v>
       </c>
       <c r="K89" s="14" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="L89" s="15"/>
       <c r="M89" s="15"/>
@@ -6333,31 +6484,31 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="10" t="n">
-        <v>1810</v>
+        <v>3601</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="D90" s="13" t="n">
-        <v>5508.4</v>
+        <v>120</v>
       </c>
       <c r="E90" s="13" t="n">
         <f aca="false">(D90-D90*10%)</f>
-        <v>4957.56</v>
+        <v>108</v>
       </c>
       <c r="F90" s="13" t="n">
-        <f aca="false">ROUND(E90*1.5,0)</f>
-        <v>7436</v>
+        <f aca="false">ROUNDDOWN(E90*1.5,0)</f>
+        <v>162</v>
       </c>
       <c r="G90" s="13" t="n">
         <f aca="false">F90 + (F90*20%)</f>
-        <v>8923.2</v>
+        <v>194.4</v>
       </c>
       <c r="H90" s="11" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="I90" s="11" t="n">
         <v>0</v>
@@ -6367,7 +6518,7 @@
         <v>0</v>
       </c>
       <c r="K90" s="14" t="s">
-        <v>14</v>
+        <v>190</v>
       </c>
       <c r="L90" s="15"/>
       <c r="M90" s="15"/>
@@ -6390,31 +6541,31 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="10" t="n">
-        <v>1814</v>
+        <v>1806</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D91" s="13" t="n">
-        <v>218.9</v>
+        <v>2954.3</v>
       </c>
       <c r="E91" s="13" t="n">
         <f aca="false">(D91-D91*10%)</f>
-        <v>197.01</v>
+        <v>2658.87</v>
       </c>
       <c r="F91" s="13" t="n">
-        <f aca="false">ROUND(E91*1.5,0)</f>
-        <v>296</v>
+        <f aca="false">ROUNDDOWN(E91*1.5,0)</f>
+        <v>3988</v>
       </c>
       <c r="G91" s="13" t="n">
         <f aca="false">F91 + (F91*20%)</f>
-        <v>355.2</v>
+        <v>4785.6</v>
       </c>
       <c r="H91" s="11" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="I91" s="11" t="n">
         <v>0</v>
@@ -6424,7 +6575,7 @@
         <v>0</v>
       </c>
       <c r="K91" s="14" t="s">
-        <v>14</v>
+        <v>192</v>
       </c>
       <c r="L91" s="15"/>
       <c r="M91" s="15"/>
@@ -6447,31 +6598,31 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="10" t="n">
-        <v>1802</v>
+        <v>1810</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c r="D92" s="13" t="n">
-        <v>40.8</v>
+        <v>5508.4</v>
       </c>
       <c r="E92" s="13" t="n">
         <f aca="false">(D92-D92*10%)</f>
-        <v>36.72</v>
+        <v>4957.56</v>
       </c>
       <c r="F92" s="13" t="n">
-        <f aca="false">ROUND(E92*1.5,0)</f>
-        <v>55</v>
+        <f aca="false">ROUNDDOWN(E92*1.5,0)</f>
+        <v>7436</v>
       </c>
       <c r="G92" s="13" t="n">
         <f aca="false">F92 + (F92*20%)</f>
-        <v>66</v>
+        <v>8923.2</v>
       </c>
       <c r="H92" s="11" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I92" s="11" t="n">
         <v>0</v>
@@ -6481,7 +6632,7 @@
         <v>0</v>
       </c>
       <c r="K92" s="14" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="L92" s="15"/>
       <c r="M92" s="15"/>
@@ -6503,33 +6654,31 @@
       <c r="AC92" s="15"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="10" t="n">
-        <v>1803</v>
+      <c r="A93" s="17" t="n">
+        <v>8411</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="C93" s="12" t="s">
-        <v>54</v>
+        <v>195</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>196</v>
       </c>
       <c r="D93" s="13" t="n">
-        <v>44.4</v>
+        <v>200</v>
       </c>
       <c r="E93" s="13" t="n">
         <f aca="false">(D93-D93*10%)</f>
-        <v>39.96</v>
+        <v>180</v>
       </c>
       <c r="F93" s="13" t="n">
-        <f aca="false">ROUND(E93*1.5,0)</f>
-        <v>60</v>
+        <f aca="false">ROUNDDOWN(E93*1.5,0)</f>
+        <v>270</v>
       </c>
       <c r="G93" s="13" t="n">
         <f aca="false">F93 + (F93*20%)</f>
-        <v>72</v>
-      </c>
-      <c r="H93" s="11" t="n">
-        <v>100</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="H93" s="11"/>
       <c r="I93" s="11" t="n">
         <v>0</v>
       </c>
@@ -6538,7 +6687,7 @@
         <v>0</v>
       </c>
       <c r="K93" s="14" t="s">
-        <v>14</v>
+        <v>197</v>
       </c>
       <c r="L93" s="15"/>
       <c r="M93" s="15"/>
@@ -6561,31 +6710,31 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="10" t="n">
-        <v>1804</v>
+        <v>1814</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D94" s="13" t="n">
-        <v>144.8</v>
+        <v>218.9</v>
       </c>
       <c r="E94" s="13" t="n">
         <f aca="false">(D94-D94*10%)</f>
-        <v>130.32</v>
+        <v>197.01</v>
       </c>
       <c r="F94" s="13" t="n">
-        <f aca="false">ROUND(E94*1.5,0)</f>
-        <v>195</v>
+        <f aca="false">ROUNDDOWN(E94*1.5,0)</f>
+        <v>295</v>
       </c>
       <c r="G94" s="13" t="n">
         <f aca="false">F94 + (F94*20%)</f>
-        <v>234</v>
+        <v>354</v>
       </c>
       <c r="H94" s="11" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I94" s="11" t="n">
         <v>0</v>
@@ -6595,7 +6744,7 @@
         <v>0</v>
       </c>
       <c r="K94" s="14" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="L94" s="15"/>
       <c r="M94" s="15"/>
@@ -6618,28 +6767,28 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="10" t="n">
-        <v>1807</v>
+        <v>1802</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="D95" s="13" t="n">
-        <v>84.3</v>
+        <v>40.8</v>
       </c>
       <c r="E95" s="13" t="n">
         <f aca="false">(D95-D95*10%)</f>
-        <v>75.87</v>
+        <v>36.72</v>
       </c>
       <c r="F95" s="13" t="n">
-        <f aca="false">ROUND(E95*1.5,0)</f>
-        <v>114</v>
+        <f aca="false">ROUNDDOWN(E95*1.5,0)</f>
+        <v>55</v>
       </c>
       <c r="G95" s="13" t="n">
         <f aca="false">F95 + (F95*20%)</f>
-        <v>136.8</v>
+        <v>66</v>
       </c>
       <c r="H95" s="11" t="n">
         <v>100</v>
@@ -6652,7 +6801,7 @@
         <v>0</v>
       </c>
       <c r="K95" s="14" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="L95" s="15"/>
       <c r="M95" s="15"/>
@@ -6675,31 +6824,31 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="10" t="n">
-        <v>1817</v>
+        <v>1803</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="D96" s="13" t="n">
-        <v>187</v>
+        <v>44.4</v>
       </c>
       <c r="E96" s="13" t="n">
         <f aca="false">(D96-D96*10%)</f>
-        <v>168.3</v>
+        <v>39.96</v>
       </c>
       <c r="F96" s="13" t="n">
-        <f aca="false">ROUND(E96*1.5,0)</f>
-        <v>252</v>
+        <f aca="false">ROUNDDOWN(E96*1.5,0)</f>
+        <v>59</v>
       </c>
       <c r="G96" s="13" t="n">
         <f aca="false">F96 + (F96*20%)</f>
-        <v>302.4</v>
+        <v>70.8</v>
       </c>
       <c r="H96" s="11" t="n">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="I96" s="11" t="n">
         <v>0</v>
@@ -6709,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="K96" s="14" t="s">
-        <v>14</v>
+        <v>202</v>
       </c>
       <c r="L96" s="15"/>
       <c r="M96" s="15"/>
@@ -6732,31 +6881,31 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="10" t="n">
-        <v>9201</v>
+        <v>1804</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D97" s="13" t="n">
-        <v>546</v>
+        <v>144.8</v>
       </c>
       <c r="E97" s="13" t="n">
         <f aca="false">(D97-D97*10%)</f>
-        <v>491.4</v>
+        <v>130.32</v>
       </c>
       <c r="F97" s="13" t="n">
-        <f aca="false">ROUND(E97*1.5,0)</f>
-        <v>737</v>
+        <f aca="false">ROUNDDOWN(E97*1.5,0)</f>
+        <v>195</v>
       </c>
       <c r="G97" s="13" t="n">
         <f aca="false">F97 + (F97*20%)</f>
-        <v>884.4</v>
+        <v>234</v>
       </c>
       <c r="H97" s="11" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="I97" s="11" t="n">
         <v>0</v>
@@ -6766,7 +6915,7 @@
         <v>0</v>
       </c>
       <c r="K97" s="14" t="s">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="L97" s="15"/>
       <c r="M97" s="15"/>
@@ -6789,31 +6938,31 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="10" t="n">
-        <v>8302</v>
+        <v>1807</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D98" s="13" t="n">
-        <v>770</v>
+        <v>84.3</v>
       </c>
       <c r="E98" s="13" t="n">
         <f aca="false">(D98-D98*10%)</f>
-        <v>693</v>
+        <v>75.87</v>
       </c>
       <c r="F98" s="13" t="n">
-        <f aca="false">ROUND(E98*1.5,0)</f>
-        <v>1040</v>
+        <f aca="false">ROUNDDOWN(E98*1.5,0)</f>
+        <v>113</v>
       </c>
       <c r="G98" s="13" t="n">
         <f aca="false">F98 + (F98*20%)</f>
-        <v>1248</v>
+        <v>135.6</v>
       </c>
       <c r="H98" s="11" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I98" s="11" t="n">
         <v>0</v>
@@ -6823,7 +6972,7 @@
         <v>0</v>
       </c>
       <c r="K98" s="14" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="L98" s="15"/>
       <c r="M98" s="15"/>
@@ -6846,31 +6995,31 @@
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="10" t="n">
-        <v>5201</v>
+        <v>1817</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="D99" s="13" t="n">
-        <v>448.7</v>
+        <v>187</v>
       </c>
       <c r="E99" s="13" t="n">
         <f aca="false">(D99-D99*10%)</f>
-        <v>403.83</v>
+        <v>168.3</v>
       </c>
       <c r="F99" s="13" t="n">
-        <f aca="false">ROUND(E99*1.5,0)</f>
-        <v>606</v>
+        <f aca="false">ROUNDDOWN(E99*1.5,0)</f>
+        <v>252</v>
       </c>
       <c r="G99" s="13" t="n">
         <f aca="false">F99 + (F99*20%)</f>
-        <v>727.2</v>
+        <v>302.4</v>
       </c>
       <c r="H99" s="11" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="I99" s="11" t="n">
         <v>0</v>
@@ -6880,7 +7029,7 @@
         <v>0</v>
       </c>
       <c r="K99" s="14" t="s">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="L99" s="15"/>
       <c r="M99" s="15"/>
@@ -6903,31 +7052,31 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="10" t="n">
-        <v>4201</v>
+        <v>9201</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D100" s="13" t="n">
-        <v>179.1</v>
+        <v>546</v>
       </c>
       <c r="E100" s="13" t="n">
         <f aca="false">(D100-D100*10%)</f>
-        <v>161.19</v>
+        <v>491.4</v>
       </c>
       <c r="F100" s="13" t="n">
-        <f aca="false">ROUND(E100*1.5,0)</f>
-        <v>242</v>
+        <f aca="false">ROUNDDOWN(E100*1.5,0)</f>
+        <v>737</v>
       </c>
       <c r="G100" s="13" t="n">
         <f aca="false">F100 + (F100*20%)</f>
-        <v>290.4</v>
+        <v>884.4</v>
       </c>
       <c r="H100" s="11" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I100" s="11" t="n">
         <v>0</v>
@@ -6937,7 +7086,7 @@
         <v>0</v>
       </c>
       <c r="K100" s="14" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="L100" s="15"/>
       <c r="M100" s="15"/>
@@ -6960,31 +7109,31 @@
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="10" t="n">
-        <v>4102</v>
+        <v>8302</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="D101" s="13" t="n">
-        <v>179.1</v>
+        <v>770</v>
       </c>
       <c r="E101" s="13" t="n">
         <f aca="false">(D101-D101*10%)</f>
-        <v>161.19</v>
+        <v>693</v>
       </c>
       <c r="F101" s="13" t="n">
-        <f aca="false">ROUND(E101*1.5,0)</f>
-        <v>242</v>
+        <f aca="false">ROUNDDOWN(E101*1.5,0)</f>
+        <v>1039</v>
       </c>
       <c r="G101" s="13" t="n">
         <f aca="false">F101 + (F101*20%)</f>
-        <v>290.4</v>
+        <v>1246.8</v>
       </c>
       <c r="H101" s="11" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I101" s="11" t="n">
         <v>0</v>
@@ -6994,7 +7143,7 @@
         <v>0</v>
       </c>
       <c r="K101" s="14" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="L101" s="15"/>
       <c r="M101" s="15"/>
@@ -7017,31 +7166,31 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="10" t="n">
-        <v>4701</v>
+        <v>5201</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>40</v>
+        <v>214</v>
       </c>
       <c r="D102" s="13" t="n">
-        <v>281.8</v>
+        <v>448.7</v>
       </c>
       <c r="E102" s="13" t="n">
         <f aca="false">(D102-D102*10%)</f>
-        <v>253.62</v>
+        <v>403.83</v>
       </c>
       <c r="F102" s="13" t="n">
-        <f aca="false">ROUND(E102*1.5,0)</f>
-        <v>380</v>
+        <f aca="false">ROUNDDOWN(E102*1.5,0)</f>
+        <v>605</v>
       </c>
       <c r="G102" s="13" t="n">
         <f aca="false">F102 + (F102*20%)</f>
-        <v>456</v>
+        <v>726</v>
       </c>
       <c r="H102" s="11" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I102" s="11" t="n">
         <v>0</v>
@@ -7051,7 +7200,7 @@
         <v>0</v>
       </c>
       <c r="K102" s="14" t="s">
-        <v>14</v>
+        <v>215</v>
       </c>
       <c r="L102" s="15"/>
       <c r="M102" s="15"/>
@@ -7074,28 +7223,28 @@
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="10" t="n">
-        <v>4401</v>
+        <v>4201</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D103" s="13" t="n">
-        <v>262.2</v>
+        <v>179.1</v>
       </c>
       <c r="E103" s="13" t="n">
         <f aca="false">(D103-D103*10%)</f>
-        <v>235.98</v>
+        <v>161.19</v>
       </c>
       <c r="F103" s="13" t="n">
-        <f aca="false">ROUND(E103*1.5,0)</f>
-        <v>354</v>
+        <f aca="false">ROUNDDOWN(E103*1.5,0)</f>
+        <v>241</v>
       </c>
       <c r="G103" s="13" t="n">
         <f aca="false">F103 + (F103*20%)</f>
-        <v>424.8</v>
+        <v>289.2</v>
       </c>
       <c r="H103" s="11" t="n">
         <v>20</v>
@@ -7108,7 +7257,7 @@
         <v>0</v>
       </c>
       <c r="K103" s="14" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="L103" s="15"/>
       <c r="M103" s="15"/>
@@ -7131,31 +7280,31 @@
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="10" t="n">
-        <v>4801</v>
+        <v>4102</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D104" s="13" t="n">
-        <v>249</v>
+        <v>179.1</v>
       </c>
       <c r="E104" s="13" t="n">
         <f aca="false">(D104-D104*10%)</f>
-        <v>224.1</v>
+        <v>161.19</v>
       </c>
       <c r="F104" s="13" t="n">
-        <f aca="false">ROUND(E104*1.5,0)</f>
-        <v>336</v>
+        <f aca="false">ROUNDDOWN(E104*1.5,0)</f>
+        <v>241</v>
       </c>
       <c r="G104" s="13" t="n">
         <f aca="false">F104 + (F104*20%)</f>
-        <v>403.2</v>
+        <v>289.2</v>
       </c>
       <c r="H104" s="11" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I104" s="11" t="n">
         <v>0</v>
@@ -7165,7 +7314,7 @@
         <v>0</v>
       </c>
       <c r="K104" s="14" t="s">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="L104" s="15"/>
       <c r="M104" s="15"/>
@@ -7188,28 +7337,28 @@
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="10" t="n">
-        <v>4304</v>
+        <v>4701</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>188</v>
+        <v>45</v>
       </c>
       <c r="D105" s="13" t="n">
-        <v>388.5</v>
+        <v>281.8</v>
       </c>
       <c r="E105" s="13" t="n">
         <f aca="false">(D105-D105*10%)</f>
-        <v>349.65</v>
+        <v>253.62</v>
       </c>
       <c r="F105" s="13" t="n">
-        <f aca="false">ROUND(E105*1.5,0)</f>
-        <v>524</v>
+        <f aca="false">ROUNDDOWN(E105*1.5,0)</f>
+        <v>380</v>
       </c>
       <c r="G105" s="13" t="n">
         <f aca="false">F105 + (F105*20%)</f>
-        <v>628.8</v>
+        <v>456</v>
       </c>
       <c r="H105" s="11" t="n">
         <v>20</v>
@@ -7222,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="K105" s="14" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="L105" s="15"/>
       <c r="M105" s="15"/>
@@ -7245,28 +7394,28 @@
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="10" t="n">
-        <v>4501</v>
+        <v>4401</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D106" s="13" t="n">
-        <v>263.3</v>
+        <v>262.2</v>
       </c>
       <c r="E106" s="13" t="n">
         <f aca="false">(D106-D106*10%)</f>
-        <v>236.97</v>
+        <v>235.98</v>
       </c>
       <c r="F106" s="13" t="n">
-        <f aca="false">ROUND(E106*1.5,0)</f>
-        <v>355</v>
+        <f aca="false">ROUNDDOWN(E106*1.5,0)</f>
+        <v>353</v>
       </c>
       <c r="G106" s="13" t="n">
         <f aca="false">F106 + (F106*20%)</f>
-        <v>426</v>
+        <v>423.6</v>
       </c>
       <c r="H106" s="11" t="n">
         <v>20</v>
@@ -7279,7 +7428,7 @@
         <v>0</v>
       </c>
       <c r="K106" s="14" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="L106" s="15"/>
       <c r="M106" s="15"/>
@@ -7302,31 +7451,31 @@
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="10" t="n">
-        <v>4305</v>
+        <v>4801</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>193</v>
+        <v>45</v>
       </c>
       <c r="D107" s="13" t="n">
-        <v>138.5</v>
+        <v>249</v>
       </c>
       <c r="E107" s="13" t="n">
         <f aca="false">(D107-D107*10%)</f>
-        <v>124.65</v>
+        <v>224.1</v>
       </c>
       <c r="F107" s="13" t="n">
-        <f aca="false">ROUND(E107*1.5,0)</f>
-        <v>187</v>
+        <f aca="false">ROUNDDOWN(E107*1.5,0)</f>
+        <v>336</v>
       </c>
       <c r="G107" s="13" t="n">
         <f aca="false">F107 + (F107*20%)</f>
-        <v>224.4</v>
+        <v>403.2</v>
       </c>
       <c r="H107" s="11" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I107" s="11" t="n">
         <v>0</v>
@@ -7336,7 +7485,7 @@
         <v>0</v>
       </c>
       <c r="K107" s="14" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="L107" s="15"/>
       <c r="M107" s="15"/>
@@ -7359,28 +7508,28 @@
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="10" t="n">
-        <v>4301</v>
+        <v>4305</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>92</v>
+        <v>227</v>
       </c>
       <c r="D108" s="13" t="n">
-        <v>462.2</v>
+        <v>138.5</v>
       </c>
       <c r="E108" s="13" t="n">
         <f aca="false">(D108-D108*10%)</f>
-        <v>415.98</v>
+        <v>124.65</v>
       </c>
       <c r="F108" s="13" t="n">
-        <f aca="false">ROUND(E108*1.5,0)</f>
-        <v>624</v>
+        <f aca="false">ROUNDDOWN(E108*1.5,0)</f>
+        <v>186</v>
       </c>
       <c r="G108" s="13" t="n">
         <f aca="false">F108 + (F108*20%)</f>
-        <v>748.8</v>
+        <v>223.2</v>
       </c>
       <c r="H108" s="11" t="n">
         <v>20</v>
@@ -7393,7 +7542,7 @@
         <v>0</v>
       </c>
       <c r="K108" s="14" t="s">
-        <v>14</v>
+        <v>228</v>
       </c>
       <c r="L108" s="15"/>
       <c r="M108" s="15"/>
@@ -7416,28 +7565,28 @@
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="10" t="n">
-        <v>4302</v>
+        <v>4304</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>196</v>
+        <v>229</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>40</v>
+        <v>230</v>
       </c>
       <c r="D109" s="13" t="n">
-        <v>268.4</v>
+        <v>388.5</v>
       </c>
       <c r="E109" s="13" t="n">
         <f aca="false">(D109-D109*10%)</f>
-        <v>241.56</v>
+        <v>349.65</v>
       </c>
       <c r="F109" s="13" t="n">
-        <f aca="false">ROUND(E109*1.5,0)</f>
-        <v>362</v>
+        <f aca="false">ROUNDDOWN(E109*1.5,0)</f>
+        <v>524</v>
       </c>
       <c r="G109" s="13" t="n">
         <f aca="false">F109 + (F109*20%)</f>
-        <v>434.4</v>
+        <v>628.8</v>
       </c>
       <c r="H109" s="11" t="n">
         <v>20</v>
@@ -7450,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="K109" s="14" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="L109" s="15"/>
       <c r="M109" s="15"/>
@@ -7473,31 +7622,31 @@
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="10" t="n">
-        <v>2303</v>
+        <v>4501</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="D110" s="13" t="n">
-        <v>43.9</v>
+        <v>263.3</v>
       </c>
       <c r="E110" s="13" t="n">
         <f aca="false">(D110-D110*10%)</f>
-        <v>39.51</v>
+        <v>236.97</v>
       </c>
       <c r="F110" s="13" t="n">
-        <f aca="false">ROUND(E110*1.5,0)</f>
-        <v>59</v>
+        <f aca="false">ROUNDDOWN(E110*1.5,0)</f>
+        <v>355</v>
       </c>
       <c r="G110" s="13" t="n">
         <f aca="false">F110 + (F110*20%)</f>
-        <v>70.8</v>
+        <v>426</v>
       </c>
       <c r="H110" s="11" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="I110" s="11" t="n">
         <v>0</v>
@@ -7507,7 +7656,7 @@
         <v>0</v>
       </c>
       <c r="K110" s="14" t="s">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="L110" s="15"/>
       <c r="M110" s="15"/>
@@ -7530,31 +7679,31 @@
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="10" t="n">
-        <v>2301</v>
+        <v>4301</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="D111" s="13" t="n">
-        <v>131.7</v>
+        <v>462.2</v>
       </c>
       <c r="E111" s="13" t="n">
         <f aca="false">(D111-D111*10%)</f>
-        <v>118.53</v>
+        <v>415.98</v>
       </c>
       <c r="F111" s="13" t="n">
-        <f aca="false">ROUND(E111*1.5,0)</f>
-        <v>178</v>
+        <f aca="false">ROUNDDOWN(E111*1.5,0)</f>
+        <v>623</v>
       </c>
       <c r="G111" s="13" t="n">
         <f aca="false">F111 + (F111*20%)</f>
-        <v>213.6</v>
+        <v>747.6</v>
       </c>
       <c r="H111" s="11" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I111" s="11" t="n">
         <v>0</v>
@@ -7564,7 +7713,7 @@
         <v>0</v>
       </c>
       <c r="K111" s="14" t="s">
-        <v>200</v>
+        <v>16</v>
       </c>
       <c r="L111" s="15"/>
       <c r="M111" s="15"/>
@@ -7587,31 +7736,31 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="10" t="n">
-        <v>2204</v>
+        <v>4302</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="D112" s="13" t="n">
-        <v>191</v>
+        <v>268.4</v>
       </c>
       <c r="E112" s="13" t="n">
         <f aca="false">(D112-D112*10%)</f>
-        <v>171.9</v>
+        <v>241.56</v>
       </c>
       <c r="F112" s="13" t="n">
-        <f aca="false">ROUND(E112*1.5,0)</f>
-        <v>258</v>
+        <f aca="false">ROUNDDOWN(E112*1.5,0)</f>
+        <v>362</v>
       </c>
       <c r="G112" s="13" t="n">
         <f aca="false">F112 + (F112*20%)</f>
-        <v>309.6</v>
+        <v>434.4</v>
       </c>
       <c r="H112" s="11" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I112" s="11" t="n">
         <v>0</v>
@@ -7621,7 +7770,7 @@
         <v>0</v>
       </c>
       <c r="K112" s="14" t="s">
-        <v>14</v>
+        <v>236</v>
       </c>
       <c r="L112" s="15"/>
       <c r="M112" s="15"/>
@@ -7644,31 +7793,31 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="10" t="n">
-        <v>2101</v>
+        <v>2303</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="D113" s="13" t="n">
-        <v>97.4</v>
+        <v>43.9</v>
       </c>
       <c r="E113" s="13" t="n">
         <f aca="false">(D113-D113*10%)</f>
-        <v>87.66</v>
+        <v>39.51</v>
       </c>
       <c r="F113" s="13" t="n">
-        <f aca="false">ROUND(E113*1.5,0)</f>
-        <v>131</v>
+        <f aca="false">ROUNDDOWN(E113*1.5,0)</f>
+        <v>59</v>
       </c>
       <c r="G113" s="13" t="n">
         <f aca="false">F113 + (F113*20%)</f>
-        <v>157.2</v>
+        <v>70.8</v>
       </c>
       <c r="H113" s="11" t="n">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="I113" s="11" t="n">
         <v>0</v>
@@ -7678,7 +7827,7 @@
         <v>0</v>
       </c>
       <c r="K113" s="14" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="L113" s="15"/>
       <c r="M113" s="15"/>
@@ -7701,31 +7850,31 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="10" t="n">
-        <v>2102</v>
+        <v>2301</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>202</v>
+        <v>239</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>205</v>
+        <v>13</v>
       </c>
       <c r="D114" s="13" t="n">
-        <v>140.9</v>
+        <v>131.7</v>
       </c>
       <c r="E114" s="13" t="n">
         <f aca="false">(D114-D114*10%)</f>
-        <v>126.81</v>
+        <v>118.53</v>
       </c>
       <c r="F114" s="13" t="n">
-        <f aca="false">ROUND(E114*1.5,0)</f>
-        <v>190</v>
+        <f aca="false">ROUNDDOWN(E114*1.5,0)</f>
+        <v>177</v>
       </c>
       <c r="G114" s="13" t="n">
         <f aca="false">F114 + (F114*20%)</f>
-        <v>228</v>
+        <v>212.4</v>
       </c>
       <c r="H114" s="11" t="n">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="I114" s="11" t="n">
         <v>0</v>
@@ -7735,7 +7884,7 @@
         <v>0</v>
       </c>
       <c r="K114" s="14" t="s">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="L114" s="15"/>
       <c r="M114" s="15"/>
@@ -7758,31 +7907,31 @@
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="10" t="n">
-        <v>2707</v>
+        <v>2204</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>22</v>
+        <v>153</v>
       </c>
       <c r="D115" s="13" t="n">
-        <v>152.9</v>
+        <v>191</v>
       </c>
       <c r="E115" s="13" t="n">
         <f aca="false">(D115-D115*10%)</f>
-        <v>137.61</v>
+        <v>171.9</v>
       </c>
       <c r="F115" s="13" t="n">
-        <f aca="false">ROUND(E115*1.5,0)</f>
-        <v>206</v>
+        <f aca="false">ROUNDDOWN(E115*1.5,0)</f>
+        <v>257</v>
       </c>
       <c r="G115" s="13" t="n">
         <f aca="false">F115 + (F115*20%)</f>
-        <v>247.2</v>
+        <v>308.4</v>
       </c>
       <c r="H115" s="11" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I115" s="11" t="n">
         <v>0</v>
@@ -7792,7 +7941,7 @@
         <v>0</v>
       </c>
       <c r="K115" s="14" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="L115" s="15"/>
       <c r="M115" s="15"/>
@@ -7815,31 +7964,31 @@
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="10" t="n">
-        <v>2708</v>
+        <v>2101</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>209</v>
+        <v>243</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>22</v>
+        <v>244</v>
       </c>
       <c r="D116" s="13" t="n">
-        <v>152.9</v>
+        <v>97.4</v>
       </c>
       <c r="E116" s="13" t="n">
         <f aca="false">(D116-D116*10%)</f>
-        <v>137.61</v>
+        <v>87.66</v>
       </c>
       <c r="F116" s="13" t="n">
-        <f aca="false">ROUND(E116*1.5,0)</f>
-        <v>206</v>
+        <f aca="false">ROUNDDOWN(E116*1.5,0)</f>
+        <v>131</v>
       </c>
       <c r="G116" s="13" t="n">
         <f aca="false">F116 + (F116*20%)</f>
-        <v>247.2</v>
+        <v>157.2</v>
       </c>
       <c r="H116" s="11" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I116" s="11" t="n">
         <v>0</v>
@@ -7849,7 +7998,7 @@
         <v>0</v>
       </c>
       <c r="K116" s="14" t="s">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="L116" s="15"/>
       <c r="M116" s="15"/>
@@ -7872,31 +8021,31 @@
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="10" t="n">
-        <v>2705</v>
+        <v>2102</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>22</v>
+        <v>246</v>
       </c>
       <c r="D117" s="13" t="n">
-        <v>152.9</v>
+        <v>140.9</v>
       </c>
       <c r="E117" s="13" t="n">
         <f aca="false">(D117-D117*10%)</f>
-        <v>137.61</v>
+        <v>126.81</v>
       </c>
       <c r="F117" s="13" t="n">
-        <f aca="false">ROUND(E117*1.5,0)</f>
-        <v>206</v>
+        <f aca="false">ROUNDDOWN(E117*1.5,0)</f>
+        <v>190</v>
       </c>
       <c r="G117" s="13" t="n">
         <f aca="false">F117 + (F117*20%)</f>
-        <v>247.2</v>
+        <v>228</v>
       </c>
       <c r="H117" s="11" t="n">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I117" s="11" t="n">
         <v>0</v>
@@ -7906,7 +8055,7 @@
         <v>0</v>
       </c>
       <c r="K117" s="14" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="L117" s="15"/>
       <c r="M117" s="15"/>
@@ -7929,13 +8078,13 @@
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="10" t="n">
-        <v>2705</v>
+        <v>2707</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D118" s="13" t="n">
         <v>152.9</v>
@@ -7945,7 +8094,7 @@
         <v>137.61</v>
       </c>
       <c r="F118" s="13" t="n">
-        <f aca="false">ROUND(E118*1.5,0)</f>
+        <f aca="false">ROUNDDOWN(E118*1.5,0)</f>
         <v>206</v>
       </c>
       <c r="G118" s="13" t="n">
@@ -7963,7 +8112,7 @@
         <v>0</v>
       </c>
       <c r="K118" s="14" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="L118" s="15"/>
       <c r="M118" s="15"/>
@@ -7985,65 +8134,89 @@
       <c r="AC118" s="15"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="17"/>
-      <c r="B119" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="C119" s="18"/>
-      <c r="D119" s="18"/>
-      <c r="E119" s="13"/>
-      <c r="F119" s="13"/>
-      <c r="G119" s="18"/>
-      <c r="H119" s="17"/>
-      <c r="I119" s="17"/>
-      <c r="J119" s="18"/>
-      <c r="K119" s="19"/>
-      <c r="L119" s="20"/>
-      <c r="M119" s="20"/>
-      <c r="N119" s="20"/>
-      <c r="O119" s="20"/>
-      <c r="P119" s="20"/>
-      <c r="Q119" s="20"/>
-      <c r="R119" s="20"/>
-      <c r="S119" s="20"/>
-      <c r="T119" s="20"/>
-      <c r="U119" s="20"/>
-      <c r="V119" s="20"/>
-      <c r="W119" s="20"/>
-      <c r="X119" s="20"/>
-      <c r="Y119" s="20"/>
-      <c r="Z119" s="20"/>
-      <c r="AA119" s="20"/>
-      <c r="AB119" s="20"/>
-      <c r="AC119" s="20"/>
+      <c r="A119" s="10" t="n">
+        <v>2708</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D119" s="13" t="n">
+        <v>152.9</v>
+      </c>
+      <c r="E119" s="13" t="n">
+        <f aca="false">(D119-D119*10%)</f>
+        <v>137.61</v>
+      </c>
+      <c r="F119" s="13" t="n">
+        <f aca="false">ROUNDDOWN(E119*1.5,0)</f>
+        <v>206</v>
+      </c>
+      <c r="G119" s="13" t="n">
+        <f aca="false">F119 + (F119*20%)</f>
+        <v>247.2</v>
+      </c>
+      <c r="H119" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="I119" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" s="13" t="n">
+        <f aca="false">D119*I119</f>
+        <v>0</v>
+      </c>
+      <c r="K119" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="L119" s="15"/>
+      <c r="M119" s="15"/>
+      <c r="N119" s="15"/>
+      <c r="O119" s="15"/>
+      <c r="P119" s="15"/>
+      <c r="Q119" s="15"/>
+      <c r="R119" s="15"/>
+      <c r="S119" s="15"/>
+      <c r="T119" s="15"/>
+      <c r="U119" s="15"/>
+      <c r="V119" s="15"/>
+      <c r="W119" s="15"/>
+      <c r="X119" s="15"/>
+      <c r="Y119" s="15"/>
+      <c r="Z119" s="15"/>
+      <c r="AA119" s="15"/>
+      <c r="AB119" s="15"/>
+      <c r="AC119" s="15"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="10" t="n">
-        <v>6602</v>
+        <v>2706</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="D120" s="13" t="n">
-        <v>7.7</v>
+        <v>152.9</v>
       </c>
       <c r="E120" s="13" t="n">
         <f aca="false">(D120-D120*10%)</f>
-        <v>6.93</v>
+        <v>137.61</v>
       </c>
       <c r="F120" s="13" t="n">
-        <f aca="false">ROUND(E120*1.5,0)</f>
-        <v>10</v>
+        <f aca="false">ROUNDDOWN(E120*1.5,0)</f>
+        <v>206</v>
       </c>
       <c r="G120" s="13" t="n">
         <f aca="false">F120 + (F120*20%)</f>
+        <v>247.2</v>
+      </c>
+      <c r="H120" s="11" t="n">
         <v>12</v>
-      </c>
-      <c r="H120" s="11" t="n">
-        <v>100</v>
       </c>
       <c r="I120" s="11" t="n">
         <v>0</v>
@@ -8053,7 +8226,7 @@
         <v>0</v>
       </c>
       <c r="K120" s="14" t="s">
-        <v>14</v>
+        <v>253</v>
       </c>
       <c r="L120" s="15"/>
       <c r="M120" s="15"/>
@@ -8076,31 +8249,31 @@
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="10" t="n">
-        <v>6601</v>
+        <v>2705</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="D121" s="13" t="n">
-        <v>70.6</v>
+        <v>152.9</v>
       </c>
       <c r="E121" s="13" t="n">
         <f aca="false">(D121-D121*10%)</f>
-        <v>63.54</v>
+        <v>137.61</v>
       </c>
       <c r="F121" s="13" t="n">
-        <f aca="false">ROUND(E121*1.5,0)</f>
-        <v>95</v>
+        <f aca="false">ROUNDDOWN(E121*1.5,0)</f>
+        <v>206</v>
       </c>
       <c r="G121" s="13" t="n">
         <f aca="false">F121 + (F121*20%)</f>
-        <v>114</v>
+        <v>247.2</v>
       </c>
       <c r="H121" s="11" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I121" s="11" t="n">
         <v>0</v>
@@ -8110,7 +8283,7 @@
         <v>0</v>
       </c>
       <c r="K121" s="14" t="s">
-        <v>14</v>
+        <v>255</v>
       </c>
       <c r="L121" s="15"/>
       <c r="M121" s="15"/>
@@ -8132,89 +8305,65 @@
       <c r="AC121" s="15"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="10" t="n">
-        <v>6502</v>
-      </c>
-      <c r="B122" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="C122" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D122" s="13" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="E122" s="13" t="n">
-        <f aca="false">(D122-D122*10%)</f>
-        <v>6.93</v>
-      </c>
-      <c r="F122" s="13" t="n">
-        <f aca="false">ROUND(E122*1.5,0)</f>
-        <v>10</v>
-      </c>
-      <c r="G122" s="13" t="n">
-        <f aca="false">F122 + (F122*20%)</f>
-        <v>12</v>
-      </c>
-      <c r="H122" s="11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I122" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" s="13" t="n">
-        <f aca="false">D122*I122</f>
-        <v>0</v>
-      </c>
-      <c r="K122" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="L122" s="15"/>
-      <c r="M122" s="15"/>
-      <c r="N122" s="15"/>
-      <c r="O122" s="15"/>
-      <c r="P122" s="15"/>
-      <c r="Q122" s="15"/>
-      <c r="R122" s="15"/>
-      <c r="S122" s="15"/>
-      <c r="T122" s="15"/>
-      <c r="U122" s="15"/>
-      <c r="V122" s="15"/>
-      <c r="W122" s="15"/>
-      <c r="X122" s="15"/>
-      <c r="Y122" s="15"/>
-      <c r="Z122" s="15"/>
-      <c r="AA122" s="15"/>
-      <c r="AB122" s="15"/>
-      <c r="AC122" s="15"/>
+      <c r="A122" s="21"/>
+      <c r="B122" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="C122" s="22"/>
+      <c r="D122" s="22"/>
+      <c r="E122" s="13"/>
+      <c r="F122" s="13"/>
+      <c r="G122" s="22"/>
+      <c r="H122" s="21"/>
+      <c r="I122" s="21"/>
+      <c r="J122" s="22"/>
+      <c r="K122" s="23"/>
+      <c r="L122" s="24"/>
+      <c r="M122" s="24"/>
+      <c r="N122" s="24"/>
+      <c r="O122" s="24"/>
+      <c r="P122" s="24"/>
+      <c r="Q122" s="24"/>
+      <c r="R122" s="24"/>
+      <c r="S122" s="24"/>
+      <c r="T122" s="24"/>
+      <c r="U122" s="24"/>
+      <c r="V122" s="24"/>
+      <c r="W122" s="24"/>
+      <c r="X122" s="24"/>
+      <c r="Y122" s="24"/>
+      <c r="Z122" s="24"/>
+      <c r="AA122" s="24"/>
+      <c r="AB122" s="24"/>
+      <c r="AC122" s="24"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="10" t="n">
-        <v>6501</v>
+        <v>6602</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>219</v>
+        <v>257</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="D123" s="13" t="n">
-        <v>70.6</v>
+        <v>7.7</v>
       </c>
       <c r="E123" s="13" t="n">
         <f aca="false">(D123-D123*10%)</f>
-        <v>63.54</v>
+        <v>6.93</v>
       </c>
       <c r="F123" s="13" t="n">
         <f aca="false">ROUND(E123*1.5,0)</f>
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="G123" s="13" t="n">
         <f aca="false">F123 + (F123*20%)</f>
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="H123" s="11" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="I123" s="11" t="n">
         <v>0</v>
@@ -8224,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="K123" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L123" s="15"/>
       <c r="M123" s="15"/>
@@ -8247,31 +8396,31 @@
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="10" t="n">
-        <v>6702</v>
+        <v>6601</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="D124" s="13" t="n">
-        <v>7.7</v>
+        <v>70.6</v>
       </c>
       <c r="E124" s="13" t="n">
         <f aca="false">(D124-D124*10%)</f>
-        <v>6.93</v>
+        <v>63.54</v>
       </c>
       <c r="F124" s="13" t="n">
         <f aca="false">ROUND(E124*1.5,0)</f>
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="G124" s="13" t="n">
         <f aca="false">F124 + (F124*20%)</f>
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="H124" s="11" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="I124" s="11" t="n">
         <v>0</v>
@@ -8281,7 +8430,7 @@
         <v>0</v>
       </c>
       <c r="K124" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L124" s="15"/>
       <c r="M124" s="15"/>
@@ -8304,31 +8453,31 @@
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="10" t="n">
-        <v>6701</v>
+        <v>6502</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="D125" s="13" t="n">
-        <v>70.6</v>
+        <v>7.7</v>
       </c>
       <c r="E125" s="13" t="n">
         <f aca="false">(D125-D125*10%)</f>
-        <v>63.54</v>
+        <v>6.93</v>
       </c>
       <c r="F125" s="13" t="n">
         <f aca="false">ROUND(E125*1.5,0)</f>
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="G125" s="13" t="n">
         <f aca="false">F125 + (F125*20%)</f>
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="H125" s="11" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="I125" s="11" t="n">
         <v>0</v>
@@ -8338,7 +8487,7 @@
         <v>0</v>
       </c>
       <c r="K125" s="14" t="s">
-        <v>222</v>
+        <v>16</v>
       </c>
       <c r="L125" s="15"/>
       <c r="M125" s="15"/>
@@ -8361,31 +8510,31 @@
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="10" t="n">
-        <v>6803</v>
+        <v>6501</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>223</v>
+        <v>260</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>224</v>
+        <v>112</v>
       </c>
       <c r="D126" s="13" t="n">
-        <v>96.5</v>
+        <v>70.6</v>
       </c>
       <c r="E126" s="13" t="n">
         <f aca="false">(D126-D126*10%)</f>
-        <v>86.85</v>
+        <v>63.54</v>
       </c>
       <c r="F126" s="13" t="n">
         <f aca="false">ROUND(E126*1.5,0)</f>
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="G126" s="13" t="n">
         <f aca="false">F126 + (F126*20%)</f>
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="H126" s="11" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I126" s="11" t="n">
         <v>0</v>
@@ -8395,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="K126" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L126" s="15"/>
       <c r="M126" s="15"/>
@@ -8418,31 +8567,31 @@
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="10" t="n">
-        <v>6801</v>
+        <v>6702</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>226</v>
+        <v>106</v>
       </c>
       <c r="D127" s="13" t="n">
-        <v>373.7</v>
+        <v>7.7</v>
       </c>
       <c r="E127" s="13" t="n">
         <f aca="false">(D127-D127*10%)</f>
-        <v>336.33</v>
+        <v>6.93</v>
       </c>
       <c r="F127" s="13" t="n">
         <f aca="false">ROUND(E127*1.5,0)</f>
-        <v>504</v>
+        <v>10</v>
       </c>
       <c r="G127" s="13" t="n">
         <f aca="false">F127 + (F127*20%)</f>
-        <v>604.8</v>
+        <v>12</v>
       </c>
       <c r="H127" s="11" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="I127" s="11" t="n">
         <v>0</v>
@@ -8452,7 +8601,7 @@
         <v>0</v>
       </c>
       <c r="K127" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L127" s="15"/>
       <c r="M127" s="15"/>
@@ -8475,31 +8624,31 @@
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="10" t="n">
-        <v>6802</v>
+        <v>6701</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>225</v>
+        <v>262</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>227</v>
+        <v>112</v>
       </c>
       <c r="D128" s="13" t="n">
-        <v>1115.1</v>
+        <v>70.6</v>
       </c>
       <c r="E128" s="13" t="n">
         <f aca="false">(D128-D128*10%)</f>
-        <v>1003.59</v>
+        <v>63.54</v>
       </c>
       <c r="F128" s="13" t="n">
         <f aca="false">ROUND(E128*1.5,0)</f>
-        <v>1505</v>
+        <v>95</v>
       </c>
       <c r="G128" s="13" t="n">
         <f aca="false">F128 + (F128*20%)</f>
-        <v>1806</v>
+        <v>114</v>
       </c>
       <c r="H128" s="11" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I128" s="11" t="n">
         <v>0</v>
@@ -8509,7 +8658,7 @@
         <v>0</v>
       </c>
       <c r="K128" s="14" t="s">
-        <v>14</v>
+        <v>263</v>
       </c>
       <c r="L128" s="15"/>
       <c r="M128" s="15"/>
@@ -8532,31 +8681,31 @@
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="10" t="n">
-        <v>7201</v>
+        <v>6803</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>25</v>
+        <v>265</v>
       </c>
       <c r="D129" s="13" t="n">
-        <v>129.2</v>
+        <v>96.5</v>
       </c>
       <c r="E129" s="13" t="n">
         <f aca="false">(D129-D129*10%)</f>
-        <v>116.28</v>
+        <v>86.85</v>
       </c>
       <c r="F129" s="13" t="n">
         <f aca="false">ROUND(E129*1.5,0)</f>
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="G129" s="13" t="n">
         <f aca="false">F129 + (F129*20%)</f>
-        <v>208.8</v>
+        <v>156</v>
       </c>
       <c r="H129" s="11" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I129" s="11" t="n">
         <v>0</v>
@@ -8566,7 +8715,7 @@
         <v>0</v>
       </c>
       <c r="K129" s="14" t="s">
-        <v>229</v>
+        <v>16</v>
       </c>
       <c r="L129" s="15"/>
       <c r="M129" s="15"/>
@@ -8589,31 +8738,31 @@
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="10" t="n">
-        <v>7101</v>
+        <v>6801</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>25</v>
+        <v>267</v>
       </c>
       <c r="D130" s="13" t="n">
-        <v>92.8</v>
+        <v>373.7</v>
       </c>
       <c r="E130" s="13" t="n">
         <f aca="false">(D130-D130*10%)</f>
-        <v>83.52</v>
+        <v>336.33</v>
       </c>
       <c r="F130" s="13" t="n">
         <f aca="false">ROUND(E130*1.5,0)</f>
-        <v>125</v>
+        <v>504</v>
       </c>
       <c r="G130" s="13" t="n">
         <f aca="false">F130 + (F130*20%)</f>
-        <v>150</v>
+        <v>604.8</v>
       </c>
       <c r="H130" s="11" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="I130" s="11" t="n">
         <v>0</v>
@@ -8623,7 +8772,7 @@
         <v>0</v>
       </c>
       <c r="K130" s="14" t="s">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="L130" s="15"/>
       <c r="M130" s="15"/>
@@ -8646,31 +8795,31 @@
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="10" t="n">
-        <v>6202</v>
+        <v>6802</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>224</v>
+        <v>268</v>
       </c>
       <c r="D131" s="13" t="n">
-        <v>152.7</v>
+        <v>1115.1</v>
       </c>
       <c r="E131" s="13" t="n">
         <f aca="false">(D131-D131*10%)</f>
-        <v>137.43</v>
+        <v>1003.59</v>
       </c>
       <c r="F131" s="13" t="n">
         <f aca="false">ROUND(E131*1.5,0)</f>
-        <v>206</v>
+        <v>1505</v>
       </c>
       <c r="G131" s="13" t="n">
         <f aca="false">F131 + (F131*20%)</f>
-        <v>247.2</v>
+        <v>1806</v>
       </c>
       <c r="H131" s="11" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="I131" s="11" t="n">
         <v>0</v>
@@ -8680,7 +8829,7 @@
         <v>0</v>
       </c>
       <c r="K131" s="14" t="s">
-        <v>233</v>
+        <v>16</v>
       </c>
       <c r="L131" s="15"/>
       <c r="M131" s="15"/>
@@ -8703,31 +8852,31 @@
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="10" t="n">
-        <v>6203</v>
+        <v>7201</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D132" s="13" t="n">
-        <v>2142.1</v>
+        <v>129.2</v>
       </c>
       <c r="E132" s="13" t="n">
         <f aca="false">(D132-D132*10%)</f>
-        <v>1927.89</v>
+        <v>116.28</v>
       </c>
       <c r="F132" s="13" t="n">
         <f aca="false">ROUND(E132*1.5,0)</f>
-        <v>2892</v>
+        <v>174</v>
       </c>
       <c r="G132" s="13" t="n">
         <f aca="false">F132 + (F132*20%)</f>
-        <v>3470.4</v>
+        <v>208.8</v>
       </c>
       <c r="H132" s="11" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="I132" s="11" t="n">
         <v>0</v>
@@ -8737,7 +8886,7 @@
         <v>0</v>
       </c>
       <c r="K132" s="14" t="s">
-        <v>14</v>
+        <v>270</v>
       </c>
       <c r="L132" s="15"/>
       <c r="M132" s="15"/>
@@ -8760,31 +8909,31 @@
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="10" t="n">
-        <v>6205</v>
+        <v>7101</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D133" s="13" t="n">
-        <v>530</v>
+        <v>92.8</v>
       </c>
       <c r="E133" s="13" t="n">
         <f aca="false">(D133-D133*10%)</f>
-        <v>477</v>
+        <v>83.52</v>
       </c>
       <c r="F133" s="13" t="n">
         <f aca="false">ROUND(E133*1.5,0)</f>
-        <v>716</v>
+        <v>125</v>
       </c>
       <c r="G133" s="13" t="n">
         <f aca="false">F133 + (F133*20%)</f>
-        <v>859.2</v>
+        <v>150</v>
       </c>
       <c r="H133" s="11" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I133" s="11" t="n">
         <v>0</v>
@@ -8794,7 +8943,7 @@
         <v>0</v>
       </c>
       <c r="K133" s="14" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="L133" s="15"/>
       <c r="M133" s="15"/>
@@ -8817,31 +8966,31 @@
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="10" t="n">
-        <v>6204</v>
+        <v>6202</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>86</v>
+        <v>265</v>
       </c>
       <c r="D134" s="13" t="n">
-        <v>10.9</v>
+        <v>152.7</v>
       </c>
       <c r="E134" s="13" t="n">
         <f aca="false">(D134-D134*10%)</f>
-        <v>9.81</v>
+        <v>137.43</v>
       </c>
       <c r="F134" s="13" t="n">
         <f aca="false">ROUND(E134*1.5,0)</f>
-        <v>15</v>
+        <v>206</v>
       </c>
       <c r="G134" s="13" t="n">
         <f aca="false">F134 + (F134*20%)</f>
-        <v>18</v>
+        <v>247.2</v>
       </c>
       <c r="H134" s="11" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="I134" s="11" t="n">
         <v>0</v>
@@ -8851,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="K134" s="14" t="s">
-        <v>14</v>
+        <v>274</v>
       </c>
       <c r="L134" s="15"/>
       <c r="M134" s="15"/>
@@ -8874,31 +9023,31 @@
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="10" t="n">
-        <v>6201</v>
+        <v>6203</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="D135" s="13" t="n">
-        <v>96.5</v>
+        <v>2142.1</v>
       </c>
       <c r="E135" s="13" t="n">
         <f aca="false">(D135-D135*10%)</f>
-        <v>86.85</v>
+        <v>1927.89</v>
       </c>
       <c r="F135" s="13" t="n">
         <f aca="false">ROUND(E135*1.5,0)</f>
-        <v>130</v>
+        <v>2892</v>
       </c>
       <c r="G135" s="13" t="n">
         <f aca="false">F135 + (F135*20%)</f>
-        <v>156</v>
+        <v>3470.4</v>
       </c>
       <c r="H135" s="11" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="I135" s="11" t="n">
         <v>0</v>
@@ -8908,7 +9057,7 @@
         <v>0</v>
       </c>
       <c r="K135" s="14" t="s">
-        <v>239</v>
+        <v>16</v>
       </c>
       <c r="L135" s="15"/>
       <c r="M135" s="15"/>
@@ -8931,31 +9080,31 @@
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="10" t="n">
-        <v>6302</v>
+        <v>6205</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>241</v>
+        <v>52</v>
       </c>
       <c r="D136" s="13" t="n">
-        <v>166</v>
+        <v>530</v>
       </c>
       <c r="E136" s="13" t="n">
         <f aca="false">(D136-D136*10%)</f>
-        <v>149.4</v>
+        <v>477</v>
       </c>
       <c r="F136" s="13" t="n">
         <f aca="false">ROUND(E136*1.5,0)</f>
-        <v>224</v>
+        <v>716</v>
       </c>
       <c r="G136" s="13" t="n">
         <f aca="false">F136 + (F136*20%)</f>
-        <v>268.8</v>
+        <v>859.2</v>
       </c>
       <c r="H136" s="11" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="I136" s="11" t="n">
         <v>0</v>
@@ -8965,7 +9114,7 @@
         <v>0</v>
       </c>
       <c r="K136" s="14" t="s">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="L136" s="15"/>
       <c r="M136" s="15"/>
@@ -8988,31 +9137,31 @@
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="10" t="n">
-        <v>6303</v>
+        <v>6204</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>244</v>
+        <v>106</v>
       </c>
       <c r="D137" s="13" t="n">
-        <v>570.8</v>
+        <v>10.9</v>
       </c>
       <c r="E137" s="13" t="n">
         <f aca="false">(D137-D137*10%)</f>
-        <v>513.72</v>
+        <v>9.81</v>
       </c>
       <c r="F137" s="13" t="n">
         <f aca="false">ROUND(E137*1.5,0)</f>
-        <v>771</v>
+        <v>15</v>
       </c>
       <c r="G137" s="13" t="n">
         <f aca="false">F137 + (F137*20%)</f>
-        <v>925.2</v>
+        <v>18</v>
       </c>
       <c r="H137" s="11" t="n">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="I137" s="11" t="n">
         <v>0</v>
@@ -9022,7 +9171,7 @@
         <v>0</v>
       </c>
       <c r="K137" s="14" t="s">
-        <v>245</v>
+        <v>16</v>
       </c>
       <c r="L137" s="15"/>
       <c r="M137" s="15"/>
@@ -9045,31 +9194,31 @@
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="10" t="n">
-        <v>6304</v>
+        <v>6201</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>246</v>
+        <v>36</v>
       </c>
       <c r="D138" s="13" t="n">
-        <v>2000.9</v>
+        <v>96.5</v>
       </c>
       <c r="E138" s="13" t="n">
         <f aca="false">(D138-D138*10%)</f>
-        <v>1800.81</v>
+        <v>86.85</v>
       </c>
       <c r="F138" s="13" t="n">
         <f aca="false">ROUND(E138*1.5,0)</f>
-        <v>2701</v>
+        <v>130</v>
       </c>
       <c r="G138" s="13" t="n">
         <f aca="false">F138 + (F138*20%)</f>
-        <v>3241.2</v>
+        <v>156</v>
       </c>
       <c r="H138" s="11" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="I138" s="11" t="n">
         <v>0</v>
@@ -9079,7 +9228,7 @@
         <v>0</v>
       </c>
       <c r="K138" s="14" t="s">
-        <v>14</v>
+        <v>280</v>
       </c>
       <c r="L138" s="15"/>
       <c r="M138" s="15"/>
@@ -9102,31 +9251,31 @@
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="10" t="n">
-        <v>6301</v>
+        <v>6302</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>31</v>
+        <v>282</v>
       </c>
       <c r="D139" s="13" t="n">
-        <v>101.2</v>
+        <v>166</v>
       </c>
       <c r="E139" s="13" t="n">
         <f aca="false">(D139-D139*10%)</f>
-        <v>91.08</v>
+        <v>149.4</v>
       </c>
       <c r="F139" s="13" t="n">
         <f aca="false">ROUND(E139*1.5,0)</f>
-        <v>137</v>
+        <v>224</v>
       </c>
       <c r="G139" s="13" t="n">
         <f aca="false">F139 + (F139*20%)</f>
-        <v>164.4</v>
+        <v>268.8</v>
       </c>
       <c r="H139" s="11" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I139" s="11" t="n">
         <v>0</v>
@@ -9136,7 +9285,7 @@
         <v>0</v>
       </c>
       <c r="K139" s="14" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="L139" s="15"/>
       <c r="M139" s="15"/>
@@ -9159,31 +9308,31 @@
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="10" t="n">
-        <v>6307</v>
+        <v>6303</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>45</v>
+        <v>285</v>
       </c>
       <c r="D140" s="13" t="n">
-        <v>530</v>
+        <v>570.8</v>
       </c>
       <c r="E140" s="13" t="n">
         <f aca="false">(D140-D140*10%)</f>
-        <v>477</v>
+        <v>513.72</v>
       </c>
       <c r="F140" s="13" t="n">
         <f aca="false">ROUND(E140*1.5,0)</f>
-        <v>716</v>
+        <v>771</v>
       </c>
       <c r="G140" s="13" t="n">
         <f aca="false">F140 + (F140*20%)</f>
-        <v>859.2</v>
+        <v>925.2</v>
       </c>
       <c r="H140" s="11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I140" s="11" t="n">
         <v>0</v>
@@ -9193,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="K140" s="14" t="s">
-        <v>14</v>
+        <v>286</v>
       </c>
       <c r="L140" s="15"/>
       <c r="M140" s="15"/>
@@ -9216,31 +9365,31 @@
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="10" t="n">
-        <v>6306</v>
+        <v>6304</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>31</v>
+        <v>287</v>
       </c>
       <c r="D141" s="13" t="n">
-        <v>101.2</v>
+        <v>2000.9</v>
       </c>
       <c r="E141" s="13" t="n">
         <f aca="false">(D141-D141*10%)</f>
-        <v>91.08</v>
+        <v>1800.81</v>
       </c>
       <c r="F141" s="13" t="n">
         <f aca="false">ROUND(E141*1.5,0)</f>
-        <v>137</v>
+        <v>2701</v>
       </c>
       <c r="G141" s="13" t="n">
         <f aca="false">F141 + (F141*20%)</f>
-        <v>164.4</v>
+        <v>3241.2</v>
       </c>
       <c r="H141" s="11" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="I141" s="11" t="n">
         <v>0</v>
@@ -9250,7 +9399,7 @@
         <v>0</v>
       </c>
       <c r="K141" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L141" s="15"/>
       <c r="M141" s="15"/>
@@ -9273,31 +9422,31 @@
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="10" t="n">
-        <v>6402</v>
+        <v>6301</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>224</v>
+        <v>36</v>
       </c>
       <c r="D142" s="13" t="n">
-        <v>134.2</v>
+        <v>101.2</v>
       </c>
       <c r="E142" s="13" t="n">
         <f aca="false">(D142-D142*10%)</f>
-        <v>120.78</v>
+        <v>91.08</v>
       </c>
       <c r="F142" s="13" t="n">
         <f aca="false">ROUND(E142*1.5,0)</f>
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="G142" s="13" t="n">
         <f aca="false">F142 + (F142*20%)</f>
-        <v>217.2</v>
+        <v>164.4</v>
       </c>
       <c r="H142" s="11" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I142" s="11" t="n">
         <v>0</v>
@@ -9307,7 +9456,7 @@
         <v>0</v>
       </c>
       <c r="K142" s="14" t="s">
-        <v>252</v>
+        <v>289</v>
       </c>
       <c r="L142" s="15"/>
       <c r="M142" s="15"/>
@@ -9330,31 +9479,31 @@
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="10" t="n">
-        <v>6403</v>
+        <v>6307</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>244</v>
+        <v>52</v>
       </c>
       <c r="D143" s="13" t="n">
-        <v>492</v>
+        <v>530</v>
       </c>
       <c r="E143" s="13" t="n">
         <f aca="false">(D143-D143*10%)</f>
-        <v>442.8</v>
+        <v>477</v>
       </c>
       <c r="F143" s="13" t="n">
         <f aca="false">ROUND(E143*1.5,0)</f>
-        <v>664</v>
+        <v>716</v>
       </c>
       <c r="G143" s="13" t="n">
         <f aca="false">F143 + (F143*20%)</f>
-        <v>796.8</v>
+        <v>859.2</v>
       </c>
       <c r="H143" s="11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I143" s="11" t="n">
         <v>0</v>
@@ -9364,7 +9513,7 @@
         <v>0</v>
       </c>
       <c r="K143" s="14" t="s">
-        <v>254</v>
+        <v>16</v>
       </c>
       <c r="L143" s="15"/>
       <c r="M143" s="15"/>
@@ -9387,31 +9536,31 @@
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="10" t="n">
-        <v>6405</v>
+        <v>6306</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>253</v>
+        <v>291</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D144" s="13" t="n">
-        <v>1492.3</v>
+        <v>101.2</v>
       </c>
       <c r="E144" s="13" t="n">
         <f aca="false">(D144-D144*10%)</f>
-        <v>1343.07</v>
+        <v>91.08</v>
       </c>
       <c r="F144" s="13" t="n">
         <f aca="false">ROUND(E144*1.5,0)</f>
-        <v>2015</v>
+        <v>137</v>
       </c>
       <c r="G144" s="13" t="n">
         <f aca="false">F144 + (F144*20%)</f>
-        <v>2418</v>
+        <v>164.4</v>
       </c>
       <c r="H144" s="11" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="I144" s="11" t="n">
         <v>0</v>
@@ -9421,7 +9570,7 @@
         <v>0</v>
       </c>
       <c r="K144" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L144" s="15"/>
       <c r="M144" s="15"/>
@@ -9444,31 +9593,31 @@
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="10" t="n">
-        <v>6401</v>
+        <v>6402</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>31</v>
+        <v>265</v>
       </c>
       <c r="D145" s="13" t="n">
-        <v>80.4</v>
+        <v>134.2</v>
       </c>
       <c r="E145" s="13" t="n">
         <f aca="false">(D145-D145*10%)</f>
-        <v>72.36</v>
+        <v>120.78</v>
       </c>
       <c r="F145" s="13" t="n">
         <f aca="false">ROUND(E145*1.5,0)</f>
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="G145" s="13" t="n">
         <f aca="false">F145 + (F145*20%)</f>
-        <v>130.8</v>
+        <v>217.2</v>
       </c>
       <c r="H145" s="11" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I145" s="11" t="n">
         <v>0</v>
@@ -9478,7 +9627,7 @@
         <v>0</v>
       </c>
       <c r="K145" s="14" t="s">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="L145" s="15"/>
       <c r="M145" s="15"/>
@@ -9501,31 +9650,31 @@
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="10" t="n">
-        <v>2501</v>
+        <v>6403</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="D146" s="13" t="n">
-        <v>133.6</v>
+        <v>492</v>
       </c>
       <c r="E146" s="13" t="n">
         <f aca="false">(D146-D146*10%)</f>
-        <v>120.24</v>
+        <v>442.8</v>
       </c>
       <c r="F146" s="13" t="n">
         <f aca="false">ROUND(E146*1.5,0)</f>
-        <v>180</v>
+        <v>664</v>
       </c>
       <c r="G146" s="13" t="n">
         <f aca="false">F146 + (F146*20%)</f>
-        <v>216</v>
+        <v>796.8</v>
       </c>
       <c r="H146" s="11" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="I146" s="11" t="n">
         <v>0</v>
@@ -9535,7 +9684,7 @@
         <v>0</v>
       </c>
       <c r="K146" s="14" t="s">
-        <v>14</v>
+        <v>295</v>
       </c>
       <c r="L146" s="15"/>
       <c r="M146" s="15"/>
@@ -9558,31 +9707,31 @@
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="10" t="n">
-        <v>8204</v>
+        <v>6405</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>260</v>
+        <v>70</v>
       </c>
       <c r="D147" s="13" t="n">
-        <v>84.5</v>
+        <v>1492.3</v>
       </c>
       <c r="E147" s="13" t="n">
         <f aca="false">(D147-D147*10%)</f>
-        <v>76.05</v>
+        <v>1343.07</v>
       </c>
       <c r="F147" s="13" t="n">
         <f aca="false">ROUND(E147*1.5,0)</f>
-        <v>114</v>
+        <v>2015</v>
       </c>
       <c r="G147" s="13" t="n">
         <f aca="false">F147 + (F147*20%)</f>
-        <v>136.8</v>
+        <v>2418</v>
       </c>
       <c r="H147" s="11" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I147" s="11" t="n">
         <v>0</v>
@@ -9592,7 +9741,7 @@
         <v>0</v>
       </c>
       <c r="K147" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L147" s="15"/>
       <c r="M147" s="15"/>
@@ -9615,31 +9764,31 @@
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="10" t="n">
-        <v>8203</v>
+        <v>6401</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>262</v>
+        <v>36</v>
       </c>
       <c r="D148" s="13" t="n">
-        <v>46.9</v>
+        <v>80.4</v>
       </c>
       <c r="E148" s="13" t="n">
         <f aca="false">(D148-D148*10%)</f>
-        <v>42.21</v>
+        <v>72.36</v>
       </c>
       <c r="F148" s="13" t="n">
         <f aca="false">ROUND(E148*1.5,0)</f>
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="G148" s="13" t="n">
         <f aca="false">F148 + (F148*20%)</f>
-        <v>75.6</v>
+        <v>130.8</v>
       </c>
       <c r="H148" s="11" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I148" s="11" t="n">
         <v>0</v>
@@ -9649,7 +9798,7 @@
         <v>0</v>
       </c>
       <c r="K148" s="14" t="s">
-        <v>14</v>
+        <v>297</v>
       </c>
       <c r="L148" s="15"/>
       <c r="M148" s="15"/>
@@ -9672,31 +9821,31 @@
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="10" t="n">
-        <v>8201</v>
+        <v>2501</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="D149" s="13" t="n">
-        <v>31.8</v>
+        <v>133.6</v>
       </c>
       <c r="E149" s="13" t="n">
         <f aca="false">(D149-D149*10%)</f>
-        <v>28.62</v>
+        <v>120.24</v>
       </c>
       <c r="F149" s="13" t="n">
         <f aca="false">ROUND(E149*1.5,0)</f>
-        <v>43</v>
+        <v>180</v>
       </c>
       <c r="G149" s="13" t="n">
         <f aca="false">F149 + (F149*20%)</f>
-        <v>51.6</v>
+        <v>216</v>
       </c>
       <c r="H149" s="11" t="n">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="I149" s="11" t="n">
         <v>0</v>
@@ -9706,7 +9855,7 @@
         <v>0</v>
       </c>
       <c r="K149" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L149" s="15"/>
       <c r="M149" s="15"/>
@@ -9729,31 +9878,31 @@
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="10" t="n">
-        <v>8202</v>
+        <v>8204</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="D150" s="13" t="n">
-        <v>77.8</v>
+        <v>84.5</v>
       </c>
       <c r="E150" s="13" t="n">
         <f aca="false">(D150-D150*10%)</f>
-        <v>70.02</v>
+        <v>76.05</v>
       </c>
       <c r="F150" s="13" t="n">
         <f aca="false">ROUND(E150*1.5,0)</f>
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="G150" s="13" t="n">
         <f aca="false">F150 + (F150*20%)</f>
-        <v>126</v>
+        <v>136.8</v>
       </c>
       <c r="H150" s="11" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I150" s="11" t="n">
         <v>0</v>
@@ -9763,7 +9912,7 @@
         <v>0</v>
       </c>
       <c r="K150" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L150" s="15"/>
       <c r="M150" s="15"/>
@@ -9786,41 +9935,41 @@
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="10" t="n">
-        <v>8110</v>
+        <v>8203</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>48</v>
+        <v>303</v>
       </c>
       <c r="D151" s="13" t="n">
-        <v>1388.3</v>
+        <v>46.9</v>
       </c>
       <c r="E151" s="13" t="n">
         <f aca="false">(D151-D151*10%)</f>
-        <v>1249.47</v>
+        <v>42.21</v>
       </c>
       <c r="F151" s="13" t="n">
         <f aca="false">ROUND(E151*1.5,0)</f>
-        <v>1874</v>
+        <v>63</v>
       </c>
       <c r="G151" s="13" t="n">
         <f aca="false">F151 + (F151*20%)</f>
-        <v>2248.8</v>
+        <v>75.6</v>
       </c>
       <c r="H151" s="11" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="I151" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J151" s="13" t="n">
-        <f aca="false">D151*I152</f>
+        <f aca="false">D151*I151</f>
         <v>0</v>
       </c>
       <c r="K151" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L151" s="15"/>
       <c r="M151" s="15"/>
@@ -9843,31 +9992,31 @@
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="10" t="n">
-        <v>8109</v>
+        <v>8201</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>266</v>
+        <v>304</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="D152" s="13" t="n">
-        <v>81.4</v>
+        <v>31.8</v>
       </c>
       <c r="E152" s="13" t="n">
         <f aca="false">(D152-D152*10%)</f>
-        <v>73.26</v>
+        <v>28.62</v>
       </c>
       <c r="F152" s="13" t="n">
         <f aca="false">ROUND(E152*1.5,0)</f>
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="G152" s="13" t="n">
         <f aca="false">F152 + (F152*20%)</f>
-        <v>132</v>
+        <v>51.6</v>
       </c>
       <c r="H152" s="11" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="I152" s="11" t="n">
         <v>0</v>
@@ -9877,7 +10026,7 @@
         <v>0</v>
       </c>
       <c r="K152" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L152" s="15"/>
       <c r="M152" s="15"/>
@@ -9900,31 +10049,31 @@
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="10" t="n">
-        <v>8108</v>
+        <v>8202</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="D153" s="13" t="n">
-        <v>44.7</v>
+        <v>77.8</v>
       </c>
       <c r="E153" s="13" t="n">
         <f aca="false">(D153-D153*10%)</f>
-        <v>40.23</v>
+        <v>70.02</v>
       </c>
       <c r="F153" s="13" t="n">
         <f aca="false">ROUND(E153*1.5,0)</f>
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="G153" s="13" t="n">
         <f aca="false">F153 + (F153*20%)</f>
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="H153" s="11" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I153" s="11" t="n">
         <v>0</v>
@@ -9934,7 +10083,7 @@
         <v>0</v>
       </c>
       <c r="K153" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L153" s="15"/>
       <c r="M153" s="15"/>
@@ -9957,41 +10106,41 @@
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="10" t="n">
-        <v>8101</v>
+        <v>8110</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>262</v>
+        <v>55</v>
       </c>
       <c r="D154" s="13" t="n">
-        <v>34.8</v>
+        <v>1388.3</v>
       </c>
       <c r="E154" s="13" t="n">
         <f aca="false">(D154-D154*10%)</f>
-        <v>31.32</v>
+        <v>1249.47</v>
       </c>
       <c r="F154" s="13" t="n">
         <f aca="false">ROUND(E154*1.5,0)</f>
-        <v>47</v>
+        <v>1874</v>
       </c>
       <c r="G154" s="13" t="n">
         <f aca="false">F154 + (F154*20%)</f>
-        <v>56.4</v>
+        <v>2248.8</v>
       </c>
       <c r="H154" s="11" t="n">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="I154" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J154" s="13" t="n">
-        <f aca="false">D154*I154</f>
+        <f aca="false">D154*I155</f>
         <v>0</v>
       </c>
       <c r="K154" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L154" s="15"/>
       <c r="M154" s="15"/>
@@ -10014,31 +10163,31 @@
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="10" t="n">
-        <v>8103</v>
+        <v>8109</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>267</v>
+        <v>308</v>
       </c>
       <c r="D155" s="13" t="n">
-        <v>75.5</v>
+        <v>81.4</v>
       </c>
       <c r="E155" s="13" t="n">
         <f aca="false">(D155-D155*10%)</f>
-        <v>67.95</v>
+        <v>73.26</v>
       </c>
       <c r="F155" s="13" t="n">
         <f aca="false">ROUND(E155*1.5,0)</f>
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G155" s="13" t="n">
         <f aca="false">F155 + (F155*20%)</f>
-        <v>122.4</v>
+        <v>132</v>
       </c>
       <c r="H155" s="11" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I155" s="11" t="n">
         <v>0</v>
@@ -10048,7 +10197,7 @@
         <v>0</v>
       </c>
       <c r="K155" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L155" s="15"/>
       <c r="M155" s="15"/>
@@ -10071,31 +10220,31 @@
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="10" t="n">
-        <v>8105</v>
+        <v>8108</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>269</v>
+        <v>309</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>258</v>
+        <v>303</v>
       </c>
       <c r="D156" s="13" t="n">
-        <v>129</v>
+        <v>44.7</v>
       </c>
       <c r="E156" s="13" t="n">
         <f aca="false">(D156-D156*10%)</f>
-        <v>116.1</v>
+        <v>40.23</v>
       </c>
       <c r="F156" s="13" t="n">
         <f aca="false">ROUND(E156*1.5,0)</f>
-        <v>174</v>
+        <v>60</v>
       </c>
       <c r="G156" s="13" t="n">
         <f aca="false">F156 + (F156*20%)</f>
-        <v>208.8</v>
+        <v>72</v>
       </c>
       <c r="H156" s="11" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I156" s="11" t="n">
         <v>0</v>
@@ -10105,7 +10254,7 @@
         <v>0</v>
       </c>
       <c r="K156" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L156" s="15"/>
       <c r="M156" s="15"/>
@@ -10128,41 +10277,41 @@
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="10" t="n">
-        <v>8107</v>
+        <v>8101</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>269</v>
+        <v>310</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>37</v>
+        <v>303</v>
       </c>
       <c r="D157" s="13" t="n">
-        <v>156.6</v>
+        <v>34.8</v>
       </c>
       <c r="E157" s="13" t="n">
         <f aca="false">(D157-D157*10%)</f>
-        <v>140.94</v>
+        <v>31.32</v>
       </c>
       <c r="F157" s="13" t="n">
         <f aca="false">ROUND(E157*1.5,0)</f>
-        <v>211</v>
+        <v>47</v>
       </c>
       <c r="G157" s="13" t="n">
         <f aca="false">F157 + (F157*20%)</f>
-        <v>253.2</v>
+        <v>56.4</v>
       </c>
       <c r="H157" s="11" t="n">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="I157" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J157" s="13" t="n">
-        <f aca="false">D157*I158</f>
+        <f aca="false">D157*I157</f>
         <v>0</v>
       </c>
       <c r="K157" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L157" s="15"/>
       <c r="M157" s="15"/>
@@ -10185,31 +10334,31 @@
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="10" t="n">
-        <v>7801</v>
+        <v>8103</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>25</v>
+        <v>308</v>
       </c>
       <c r="D158" s="13" t="n">
-        <v>155</v>
+        <v>75.5</v>
       </c>
       <c r="E158" s="13" t="n">
         <f aca="false">(D158-D158*10%)</f>
-        <v>139.5</v>
+        <v>67.95</v>
       </c>
       <c r="F158" s="13" t="n">
         <f aca="false">ROUND(E158*1.5,0)</f>
-        <v>209</v>
+        <v>102</v>
       </c>
       <c r="G158" s="13" t="n">
         <f aca="false">F158 + (F158*20%)</f>
-        <v>250.8</v>
+        <v>122.4</v>
       </c>
       <c r="H158" s="11" t="n">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="I158" s="11" t="n">
         <v>0</v>
@@ -10219,7 +10368,7 @@
         <v>0</v>
       </c>
       <c r="K158" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L158" s="15"/>
       <c r="M158" s="15"/>
@@ -10242,31 +10391,31 @@
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="10" t="n">
-        <v>7302</v>
+        <v>8105</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>25</v>
+        <v>299</v>
       </c>
       <c r="D159" s="13" t="n">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="E159" s="13" t="n">
         <f aca="false">(D159-D159*10%)</f>
-        <v>139.5</v>
+        <v>116.1</v>
       </c>
       <c r="F159" s="13" t="n">
         <f aca="false">ROUND(E159*1.5,0)</f>
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="G159" s="13" t="n">
         <f aca="false">F159 + (F159*20%)</f>
-        <v>250.8</v>
+        <v>208.8</v>
       </c>
       <c r="H159" s="11" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="I159" s="11" t="n">
         <v>0</v>
@@ -10276,7 +10425,7 @@
         <v>0</v>
       </c>
       <c r="K159" s="14" t="s">
-        <v>272</v>
+        <v>16</v>
       </c>
       <c r="L159" s="15"/>
       <c r="M159" s="15"/>
@@ -10299,41 +10448,41 @@
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="10" t="n">
-        <v>7502</v>
+        <v>8107</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D160" s="13" t="n">
-        <v>1100.3</v>
+        <v>156.6</v>
       </c>
       <c r="E160" s="13" t="n">
         <f aca="false">(D160-D160*10%)</f>
-        <v>990.27</v>
+        <v>140.94</v>
       </c>
       <c r="F160" s="13" t="n">
         <f aca="false">ROUND(E160*1.5,0)</f>
-        <v>1485</v>
+        <v>211</v>
       </c>
       <c r="G160" s="13" t="n">
         <f aca="false">F160 + (F160*20%)</f>
-        <v>1782</v>
+        <v>253.2</v>
       </c>
       <c r="H160" s="11" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="I160" s="11" t="n">
         <v>0</v>
       </c>
       <c r="J160" s="13" t="n">
-        <f aca="false">D160*I160</f>
+        <f aca="false">D160*I161</f>
         <v>0</v>
       </c>
       <c r="K160" s="14" t="s">
-        <v>274</v>
+        <v>16</v>
       </c>
       <c r="L160" s="15"/>
       <c r="M160" s="15"/>
@@ -10356,31 +10505,31 @@
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="10" t="n">
-        <v>7501</v>
+        <v>7801</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>276</v>
+        <v>29</v>
       </c>
       <c r="D161" s="13" t="n">
-        <v>248.9</v>
+        <v>155</v>
       </c>
       <c r="E161" s="13" t="n">
         <f aca="false">(D161-D161*10%)</f>
-        <v>224.01</v>
+        <v>139.5</v>
       </c>
       <c r="F161" s="13" t="n">
         <f aca="false">ROUND(E161*1.5,0)</f>
-        <v>336</v>
+        <v>209</v>
       </c>
       <c r="G161" s="13" t="n">
         <f aca="false">F161 + (F161*20%)</f>
-        <v>403.2</v>
+        <v>250.8</v>
       </c>
       <c r="H161" s="11" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I161" s="11" t="n">
         <v>0</v>
@@ -10390,7 +10539,7 @@
         <v>0</v>
       </c>
       <c r="K161" s="14" t="s">
-        <v>277</v>
+        <v>16</v>
       </c>
       <c r="L161" s="15"/>
       <c r="M161" s="15"/>
@@ -10413,31 +10562,31 @@
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="10" t="n">
-        <v>7401</v>
+        <v>7302</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D162" s="13" t="n">
-        <v>240.3</v>
+        <v>155</v>
       </c>
       <c r="E162" s="13" t="n">
         <f aca="false">(D162-D162*10%)</f>
-        <v>216.27</v>
+        <v>139.5</v>
       </c>
       <c r="F162" s="13" t="n">
         <f aca="false">ROUND(E162*1.5,0)</f>
-        <v>324</v>
+        <v>209</v>
       </c>
       <c r="G162" s="13" t="n">
         <f aca="false">F162 + (F162*20%)</f>
-        <v>388.8</v>
+        <v>250.8</v>
       </c>
       <c r="H162" s="11" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I162" s="11" t="n">
         <v>0</v>
@@ -10447,7 +10596,7 @@
         <v>0</v>
       </c>
       <c r="K162" s="14" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="L162" s="15"/>
       <c r="M162" s="15"/>
@@ -10470,31 +10619,31 @@
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="10" t="n">
-        <v>7403</v>
+        <v>7502</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="C163" s="12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D163" s="13" t="n">
-        <v>246.6</v>
+        <v>1100.3</v>
       </c>
       <c r="E163" s="13" t="n">
         <f aca="false">(D163-D163*10%)</f>
-        <v>221.94</v>
+        <v>990.27</v>
       </c>
       <c r="F163" s="13" t="n">
         <f aca="false">ROUND(E163*1.5,0)</f>
-        <v>333</v>
+        <v>1485</v>
       </c>
       <c r="G163" s="13" t="n">
         <f aca="false">F163 + (F163*20%)</f>
-        <v>399.6</v>
+        <v>1782</v>
       </c>
       <c r="H163" s="11" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I163" s="11" t="n">
         <v>0</v>
@@ -10504,7 +10653,7 @@
         <v>0</v>
       </c>
       <c r="K163" s="14" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="L163" s="15"/>
       <c r="M163" s="15"/>
@@ -10527,31 +10676,31 @@
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="10" t="n">
-        <v>7404</v>
+        <v>7501</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>276</v>
+        <v>317</v>
       </c>
       <c r="D164" s="13" t="n">
-        <v>1169.2</v>
+        <v>248.9</v>
       </c>
       <c r="E164" s="13" t="n">
         <f aca="false">(D164-D164*10%)</f>
-        <v>1052.28</v>
+        <v>224.01</v>
       </c>
       <c r="F164" s="13" t="n">
         <f aca="false">ROUND(E164*1.5,0)</f>
-        <v>1578</v>
+        <v>336</v>
       </c>
       <c r="G164" s="13" t="n">
         <f aca="false">F164 + (F164*20%)</f>
-        <v>1893.6</v>
+        <v>403.2</v>
       </c>
       <c r="H164" s="11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I164" s="11" t="n">
         <v>0</v>
@@ -10561,7 +10710,7 @@
         <v>0</v>
       </c>
       <c r="K164" s="14" t="s">
-        <v>14</v>
+        <v>318</v>
       </c>
       <c r="L164" s="15"/>
       <c r="M164" s="15"/>
@@ -10584,31 +10733,31 @@
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="10" t="n">
-        <v>7402</v>
+        <v>7401</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>276</v>
+        <v>21</v>
       </c>
       <c r="D165" s="13" t="n">
-        <v>926.2</v>
+        <v>240.3</v>
       </c>
       <c r="E165" s="13" t="n">
         <f aca="false">(D165-D165*10%)</f>
-        <v>833.58</v>
+        <v>216.27</v>
       </c>
       <c r="F165" s="13" t="n">
         <f aca="false">ROUND(E165*1.5,0)</f>
-        <v>1250</v>
+        <v>324</v>
       </c>
       <c r="G165" s="13" t="n">
         <f aca="false">F165 + (F165*20%)</f>
-        <v>1500</v>
+        <v>388.8</v>
       </c>
       <c r="H165" s="11" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="I165" s="11" t="n">
         <v>0</v>
@@ -10618,7 +10767,7 @@
         <v>0</v>
       </c>
       <c r="K165" s="14" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="L165" s="15"/>
       <c r="M165" s="15"/>
@@ -10640,32 +10789,32 @@
       <c r="AC165" s="15"/>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="21" t="n">
-        <v>7405</v>
-      </c>
-      <c r="B166" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="C166" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D166" s="24" t="n">
-        <v>155</v>
+      <c r="A166" s="10" t="n">
+        <v>7403</v>
+      </c>
+      <c r="B166" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="C166" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D166" s="13" t="n">
+        <v>246.6</v>
       </c>
       <c r="E166" s="13" t="n">
         <f aca="false">(D166-D166*10%)</f>
-        <v>139.5</v>
+        <v>221.94</v>
       </c>
       <c r="F166" s="13" t="n">
         <f aca="false">ROUND(E166*1.5,0)</f>
-        <v>209</v>
-      </c>
-      <c r="G166" s="24" t="n">
+        <v>333</v>
+      </c>
+      <c r="G166" s="13" t="n">
         <f aca="false">F166 + (F166*20%)</f>
-        <v>250.8</v>
-      </c>
-      <c r="H166" s="22" t="n">
-        <v>10</v>
+        <v>399.6</v>
+      </c>
+      <c r="H166" s="11" t="n">
+        <v>18</v>
       </c>
       <c r="I166" s="11" t="n">
         <v>0</v>
@@ -10674,8 +10823,8 @@
         <f aca="false">D166*I166</f>
         <v>0</v>
       </c>
-      <c r="K166" s="25" t="s">
-        <v>286</v>
+      <c r="K166" s="14" t="s">
+        <v>322</v>
       </c>
       <c r="L166" s="15"/>
       <c r="M166" s="15"/>
@@ -10697,23 +10846,43 @@
       <c r="AC166" s="15"/>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="26"/>
-      <c r="B167" s="27"/>
-      <c r="C167" s="28"/>
-      <c r="D167" s="29"/>
-      <c r="E167" s="29"/>
-      <c r="F167" s="29"/>
-      <c r="G167" s="29"/>
-      <c r="H167" s="30"/>
-      <c r="I167" s="31" t="n">
-        <f aca="false">SUM(I4:I154)</f>
-        <v>0</v>
-      </c>
-      <c r="J167" s="32" t="n">
-        <f aca="false">SUM(J4:J154)</f>
-        <v>0</v>
-      </c>
-      <c r="K167" s="33"/>
+      <c r="A167" s="10" t="n">
+        <v>7404</v>
+      </c>
+      <c r="B167" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="C167" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="D167" s="13" t="n">
+        <v>1169.2</v>
+      </c>
+      <c r="E167" s="13" t="n">
+        <f aca="false">(D167-D167*10%)</f>
+        <v>1052.28</v>
+      </c>
+      <c r="F167" s="13" t="n">
+        <f aca="false">ROUND(E167*1.5,0)</f>
+        <v>1578</v>
+      </c>
+      <c r="G167" s="13" t="n">
+        <f aca="false">F167 + (F167*20%)</f>
+        <v>1893.6</v>
+      </c>
+      <c r="H167" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I167" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" s="13" t="n">
+        <f aca="false">D167*I167</f>
+        <v>0</v>
+      </c>
+      <c r="K167" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="L167" s="15"/>
       <c r="M167" s="15"/>
       <c r="N167" s="15"/>
@@ -10733,9 +10902,157 @@
       <c r="AB167" s="15"/>
       <c r="AC167" s="15"/>
     </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="10" t="n">
+        <v>7402</v>
+      </c>
+      <c r="B168" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="C168" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="D168" s="13" t="n">
+        <v>926.2</v>
+      </c>
+      <c r="E168" s="13" t="n">
+        <f aca="false">(D168-D168*10%)</f>
+        <v>833.58</v>
+      </c>
+      <c r="F168" s="13" t="n">
+        <f aca="false">ROUND(E168*1.5,0)</f>
+        <v>1250</v>
+      </c>
+      <c r="G168" s="13" t="n">
+        <f aca="false">F168 + (F168*20%)</f>
+        <v>1500</v>
+      </c>
+      <c r="H168" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I168" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" s="13" t="n">
+        <f aca="false">D168*I168</f>
+        <v>0</v>
+      </c>
+      <c r="K168" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="L168" s="15"/>
+      <c r="M168" s="15"/>
+      <c r="N168" s="15"/>
+      <c r="O168" s="15"/>
+      <c r="P168" s="15"/>
+      <c r="Q168" s="15"/>
+      <c r="R168" s="15"/>
+      <c r="S168" s="15"/>
+      <c r="T168" s="15"/>
+      <c r="U168" s="15"/>
+      <c r="V168" s="15"/>
+      <c r="W168" s="15"/>
+      <c r="X168" s="15"/>
+      <c r="Y168" s="15"/>
+      <c r="Z168" s="15"/>
+      <c r="AA168" s="15"/>
+      <c r="AB168" s="15"/>
+      <c r="AC168" s="15"/>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="25" t="n">
+        <v>7405</v>
+      </c>
+      <c r="B169" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="C169" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D169" s="28" t="n">
+        <v>155</v>
+      </c>
+      <c r="E169" s="13" t="n">
+        <f aca="false">(D169-D169*10%)</f>
+        <v>139.5</v>
+      </c>
+      <c r="F169" s="13" t="n">
+        <f aca="false">ROUND(E169*1.5,0)</f>
+        <v>209</v>
+      </c>
+      <c r="G169" s="28" t="n">
+        <f aca="false">F169 + (F169*20%)</f>
+        <v>250.8</v>
+      </c>
+      <c r="H169" s="26" t="n">
+        <v>10</v>
+      </c>
+      <c r="I169" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" s="13" t="n">
+        <f aca="false">D169*I169</f>
+        <v>0</v>
+      </c>
+      <c r="K169" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="L169" s="15"/>
+      <c r="M169" s="15"/>
+      <c r="N169" s="15"/>
+      <c r="O169" s="15"/>
+      <c r="P169" s="15"/>
+      <c r="Q169" s="15"/>
+      <c r="R169" s="15"/>
+      <c r="S169" s="15"/>
+      <c r="T169" s="15"/>
+      <c r="U169" s="15"/>
+      <c r="V169" s="15"/>
+      <c r="W169" s="15"/>
+      <c r="X169" s="15"/>
+      <c r="Y169" s="15"/>
+      <c r="Z169" s="15"/>
+      <c r="AA169" s="15"/>
+      <c r="AB169" s="15"/>
+      <c r="AC169" s="15"/>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="30"/>
+      <c r="B170" s="31"/>
+      <c r="C170" s="32"/>
+      <c r="D170" s="33"/>
+      <c r="E170" s="33"/>
+      <c r="F170" s="33"/>
+      <c r="G170" s="33"/>
+      <c r="H170" s="34"/>
+      <c r="I170" s="35" t="n">
+        <f aca="false">SUM(I5:I157)</f>
+        <v>0</v>
+      </c>
+      <c r="J170" s="36" t="n">
+        <f aca="false">SUM(J5:J157)</f>
+        <v>0</v>
+      </c>
+      <c r="K170" s="37"/>
+      <c r="L170" s="15"/>
+      <c r="M170" s="15"/>
+      <c r="N170" s="15"/>
+      <c r="O170" s="15"/>
+      <c r="P170" s="15"/>
+      <c r="Q170" s="15"/>
+      <c r="R170" s="15"/>
+      <c r="S170" s="15"/>
+      <c r="T170" s="15"/>
+      <c r="U170" s="15"/>
+      <c r="V170" s="15"/>
+      <c r="W170" s="15"/>
+      <c r="X170" s="15"/>
+      <c r="Y170" s="15"/>
+      <c r="Z170" s="15"/>
+      <c r="AA170" s="15"/>
+      <c r="AB170" s="15"/>
+      <c r="AC170" s="15"/>
+    </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -11575,10 +11892,13 @@
     <row r="1007" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1008" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1009" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1010" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1011" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1012" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="D167">
+  <conditionalFormatting sqref="D170">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(TRIM(D167))&gt;0</formula>
+      <formula>LEN(TRIM(D170))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
